--- a/高考/学校.xlsx
+++ b/高考/学校.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\bookmark-backup\高考\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\study-notes\高考\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6574E23C-B998-478D-A96B-EA58AF55E73C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5604" xr2:uid="{2D47E2F7-B1C2-4444-9B19-7909AFEFE8EC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5604"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="211" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1097,7 +1099,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -1330,7 +1332,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{AC885AA3-F9CF-4394-933D-8CE246DBEB2C}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1642,11 +1644,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6590DED2-4CDA-4C6F-9DC1-A3B4B2A620D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2141,47 +2143,47 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=37&amp;subject=5&amp;level=1&amp;college_code=10426&amp;batch=1&amp;province=43" xr:uid="{43EBB0B8-1E5E-40B7-A1B8-5ADF4AEB5B0A}"/>
-    <hyperlink ref="E19" r:id="rId2" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=11&amp;subject=5&amp;level=1&amp;college_code=11149&amp;batch=1&amp;province=43" xr:uid="{2F89B8A2-49DD-4EBA-B36A-BC233523347C}"/>
-    <hyperlink ref="B20" r:id="rId3" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=61&amp;subject=5&amp;level=1&amp;college_code=10708&amp;batch=1&amp;province=43" xr:uid="{EF23394D-57CA-4AF7-835F-4B4F31E25513}"/>
-    <hyperlink ref="E20" r:id="rId4" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=42&amp;subject=5&amp;level=1&amp;college_code=11075&amp;batch=1&amp;province=43" xr:uid="{2DAC691C-861D-4565-A297-77BE6C308D1C}"/>
-    <hyperlink ref="B21" r:id="rId5" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=61&amp;subject=5&amp;level=1&amp;college_code=10704&amp;batch=1&amp;province=43" xr:uid="{3FE23515-D3F3-4ACB-81B4-490B12A49937}"/>
-    <hyperlink ref="E21" r:id="rId6" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=22&amp;subject=5&amp;level=1&amp;college_code=10186&amp;batch=1&amp;province=43" xr:uid="{2935DA36-4F21-4338-92F0-A0B2B0452EB5}"/>
-    <hyperlink ref="B22" r:id="rId7" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=13&amp;subject=5&amp;level=1&amp;college_code=10107&amp;batch=1&amp;province=43" xr:uid="{76E29919-EAC5-4162-BEFB-A0D8FF5DB9AD}"/>
-    <hyperlink ref="E22" r:id="rId8" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=21&amp;subject=5&amp;level=1&amp;college_code=10142&amp;batch=1&amp;province=43" xr:uid="{40844FDC-1D66-48FF-A42C-AA1F1937B9EE}"/>
-    <hyperlink ref="B23" r:id="rId9" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=21&amp;subject=5&amp;level=1&amp;college_code=10153&amp;batch=1&amp;province=43" xr:uid="{5B1275CC-25B8-47BB-B11A-BC8F874C99BD}"/>
-    <hyperlink ref="E23" r:id="rId10" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=23&amp;subject=5&amp;level=1&amp;college_code=10224&amp;batch=1&amp;province=43" xr:uid="{F115CCA1-3AFC-4C93-8170-85CF43E35A4D}"/>
-    <hyperlink ref="B24" r:id="rId11" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=23&amp;subject=5&amp;level=1&amp;college_code=10225&amp;batch=1&amp;province=43" xr:uid="{631BFEE8-6C34-4765-8358-4F741180AA48}"/>
-    <hyperlink ref="E24" r:id="rId12" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=32&amp;subject=5&amp;level=1&amp;college_code=10300&amp;batch=1&amp;province=43" xr:uid="{67DF1512-0B76-4F49-93FD-0485D6F9EE0D}"/>
-    <hyperlink ref="B25" r:id="rId13" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=35&amp;subject=5&amp;level=1&amp;college_code=10389&amp;batch=1&amp;province=43" xr:uid="{458F3EDA-BBB3-4715-A452-A696E96C9F6F}"/>
-    <hyperlink ref="E25" r:id="rId14" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=37&amp;subject=5&amp;level=1&amp;college_code=10445&amp;batch=1&amp;province=43" xr:uid="{75B8E2D8-1825-4551-BB02-FC6DEB7CF0B0}"/>
-    <hyperlink ref="B26" r:id="rId15" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=43&amp;subject=5&amp;level=1&amp;college_code=10530&amp;batch=1&amp;province=43" xr:uid="{9A610142-2D88-4B5D-B361-A6706EDBDCBB}"/>
-    <hyperlink ref="E26" r:id="rId16" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=61&amp;subject=5&amp;level=1&amp;college_code=10702&amp;batch=1&amp;province=43" xr:uid="{11970B4F-50AD-4B7A-8CCB-C8FB51C5E6E5}"/>
-    <hyperlink ref="B27" r:id="rId17" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=51&amp;subject=5&amp;level=1&amp;college_code=19614&amp;batch=1&amp;province=43" xr:uid="{D0F125A5-4539-468A-A126-A605640BA7B9}"/>
-    <hyperlink ref="B3" r:id="rId18" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=37&amp;subject=5&amp;level=1&amp;college_code=11065&amp;batch=1&amp;province=43" xr:uid="{20379724-5E12-440F-90EA-45F5284E0F27}"/>
-    <hyperlink ref="E3" r:id="rId19" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=11&amp;subject=5&amp;level=1&amp;college_code=10043&amp;batch=1&amp;province=43" xr:uid="{54164966-E2C1-49A5-A695-A0A90BCF3DFA}"/>
-    <hyperlink ref="B4" r:id="rId20" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=51&amp;subject=5&amp;level=1&amp;college_code=10616&amp;batch=1&amp;province=43" xr:uid="{18F92AFB-EEC6-4E60-9D47-3F0E551C9527}"/>
-    <hyperlink ref="E4" r:id="rId21" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=42&amp;subject=5&amp;level=1&amp;college_code=10512&amp;batch=1&amp;province=43" xr:uid="{2C0552D9-4FA9-469A-88FB-67DC74168DFE}"/>
-    <hyperlink ref="B5" r:id="rId22" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=61&amp;subject=5&amp;level=1&amp;college_code=10703&amp;batch=1&amp;province=43" xr:uid="{9C44E6F0-B458-4EA2-9A77-D84AD22A5E73}"/>
-    <hyperlink ref="E5" r:id="rId23" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=42&amp;subject=5&amp;level=1&amp;college_code=10490&amp;batch=1&amp;province=43" xr:uid="{C78909E7-C040-4689-9A5D-93AB79FEAE02}"/>
-    <hyperlink ref="B6" r:id="rId24" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=61&amp;subject=5&amp;level=1&amp;college_code=10700&amp;batch=1&amp;province=43" xr:uid="{19A54BC5-DB8D-46BA-942A-9EFE849A578F}"/>
-    <hyperlink ref="E6" r:id="rId25" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=11&amp;subject=5&amp;level=1&amp;college_code=11417&amp;batch=1&amp;province=43" xr:uid="{12FA1BE0-921A-4707-A6A8-F638A8410066}"/>
-    <hyperlink ref="B7" r:id="rId26" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=12&amp;subject=5&amp;level=1&amp;college_code=10059&amp;batch=1&amp;province=43" xr:uid="{CB270B16-A683-4F2D-BD5B-0119B63F376E}"/>
-    <hyperlink ref="E7" r:id="rId27" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=15&amp;subject=5&amp;level=1&amp;college_code=10126&amp;batch=1&amp;province=43" xr:uid="{57933454-B752-4807-88CB-9E6C37158CE0}"/>
-    <hyperlink ref="B8" r:id="rId28" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=21&amp;subject=5&amp;level=1&amp;college_code=10159&amp;batch=1&amp;province=43" xr:uid="{ECAE7B1C-EF63-4C9F-9B26-EBEB2012F235}"/>
-    <hyperlink ref="E8" r:id="rId29" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=32&amp;subject=5&amp;level=1&amp;college_code=10289&amp;batch=1&amp;province=43" xr:uid="{796B9F9A-277C-4670-AECA-960D6C884308}"/>
-    <hyperlink ref="B9" r:id="rId30" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=32&amp;subject=5&amp;level=1&amp;college_code=11117&amp;batch=1&amp;province=43" xr:uid="{C1728A45-3096-425E-A112-C195F3C4A73B}"/>
-    <hyperlink ref="E9" r:id="rId31" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=33&amp;subject=5&amp;level=1&amp;college_code=10345&amp;batch=1&amp;province=43" xr:uid="{FECEB2CA-B564-47E4-82E2-A1CA498AE093}"/>
-    <hyperlink ref="B10" r:id="rId32" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=35&amp;subject=5&amp;level=1&amp;college_code=10386&amp;batch=1&amp;province=43" xr:uid="{DAA4B0A9-AA55-44DC-98A5-8C2F7DB1A1FC}"/>
-    <hyperlink ref="E10" r:id="rId33" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=36&amp;subject=5&amp;level=1&amp;college_code=10404&amp;batch=1&amp;province=43" xr:uid="{3A423108-8BBE-4DA5-8042-8E5C5951FF31}"/>
-    <hyperlink ref="B11" r:id="rId34" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=44&amp;subject=5&amp;level=1&amp;college_code=10564&amp;batch=1&amp;province=43" xr:uid="{88ECFC4D-EEE3-4165-92AC-3A1857955E43}"/>
-    <hyperlink ref="E11" r:id="rId35" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=53&amp;subject=5&amp;level=1&amp;college_code=10674&amp;batch=1&amp;province=43" xr:uid="{ECF8B58C-E7AB-4320-835A-005066F98866}"/>
-    <hyperlink ref="B12" r:id="rId36" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=43&amp;subject=5&amp;level=1&amp;college_code=10536&amp;batch=1&amp;province=43" xr:uid="{E4C20EF1-FF99-46A0-92C7-9AE9FB3CE253}"/>
-    <hyperlink ref="E12" r:id="rId37" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=33&amp;subject=5&amp;level=1&amp;college_code=16301&amp;batch=1&amp;province=43" xr:uid="{3ADE5CB9-197F-4E4C-BC6C-B282A60E4782}"/>
-    <hyperlink ref="B13" r:id="rId38" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=32&amp;subject=5&amp;level=1&amp;college_code=10298&amp;batch=1&amp;province=43" xr:uid="{27B5A5E4-9767-4A41-BA8F-180435FD272E}"/>
-    <hyperlink ref="E13" r:id="rId39" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=12&amp;subject=5&amp;level=1&amp;college_code=10063&amp;batch=1&amp;province=43" xr:uid="{0E3E16D3-C665-480B-BEEE-D0F389BB1433}"/>
-    <hyperlink ref="B14" r:id="rId40" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=50&amp;subject=5&amp;level=1&amp;college_code=10618&amp;batch=1&amp;province=43" xr:uid="{C6A5A004-274C-4E00-8F03-A4F3E72BC451}"/>
-    <hyperlink ref="E14" r:id="rId41" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=32&amp;subject=5&amp;level=1&amp;college_code=16302&amp;batch=1&amp;province=43" xr:uid="{18CCCD0F-3D01-4FAB-ACB5-9559775CC9AE}"/>
+    <hyperlink ref="B19" r:id="rId1" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=37&amp;subject=5&amp;level=1&amp;college_code=10426&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="E19" r:id="rId2" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=11&amp;subject=5&amp;level=1&amp;college_code=11149&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="B20" r:id="rId3" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=61&amp;subject=5&amp;level=1&amp;college_code=10708&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="E20" r:id="rId4" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=42&amp;subject=5&amp;level=1&amp;college_code=11075&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="B21" r:id="rId5" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=61&amp;subject=5&amp;level=1&amp;college_code=10704&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="E21" r:id="rId6" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=22&amp;subject=5&amp;level=1&amp;college_code=10186&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="B22" r:id="rId7" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=13&amp;subject=5&amp;level=1&amp;college_code=10107&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="E22" r:id="rId8" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=21&amp;subject=5&amp;level=1&amp;college_code=10142&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="B23" r:id="rId9" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=21&amp;subject=5&amp;level=1&amp;college_code=10153&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="E23" r:id="rId10" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=23&amp;subject=5&amp;level=1&amp;college_code=10224&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="B24" r:id="rId11" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=23&amp;subject=5&amp;level=1&amp;college_code=10225&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="E24" r:id="rId12" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=32&amp;subject=5&amp;level=1&amp;college_code=10300&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="B25" r:id="rId13" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=35&amp;subject=5&amp;level=1&amp;college_code=10389&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="E25" r:id="rId14" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=37&amp;subject=5&amp;level=1&amp;college_code=10445&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="B26" r:id="rId15" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=43&amp;subject=5&amp;level=1&amp;college_code=10530&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="E26" r:id="rId16" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=61&amp;subject=5&amp;level=1&amp;college_code=10702&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="B27" r:id="rId17" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=51&amp;subject=5&amp;level=1&amp;college_code=19614&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="B3" r:id="rId18" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=37&amp;subject=5&amp;level=1&amp;college_code=11065&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="E3" r:id="rId19" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=11&amp;subject=5&amp;level=1&amp;college_code=10043&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="B4" r:id="rId20" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=51&amp;subject=5&amp;level=1&amp;college_code=10616&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="E4" r:id="rId21" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=42&amp;subject=5&amp;level=1&amp;college_code=10512&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="B5" r:id="rId22" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=61&amp;subject=5&amp;level=1&amp;college_code=10703&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="E5" r:id="rId23" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=42&amp;subject=5&amp;level=1&amp;college_code=10490&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="B6" r:id="rId24" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=61&amp;subject=5&amp;level=1&amp;college_code=10700&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="E6" r:id="rId25" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=11&amp;subject=5&amp;level=1&amp;college_code=11417&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="B7" r:id="rId26" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=12&amp;subject=5&amp;level=1&amp;college_code=10059&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="E7" r:id="rId27" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=15&amp;subject=5&amp;level=1&amp;college_code=10126&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="B8" r:id="rId28" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=21&amp;subject=5&amp;level=1&amp;college_code=10159&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="E8" r:id="rId29" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=32&amp;subject=5&amp;level=1&amp;college_code=10289&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="B9" r:id="rId30" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=32&amp;subject=5&amp;level=1&amp;college_code=11117&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="E9" r:id="rId31" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=33&amp;subject=5&amp;level=1&amp;college_code=10345&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="B10" r:id="rId32" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=35&amp;subject=5&amp;level=1&amp;college_code=10386&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="E10" r:id="rId33" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=36&amp;subject=5&amp;level=1&amp;college_code=10404&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="B11" r:id="rId34" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=44&amp;subject=5&amp;level=1&amp;college_code=10564&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="E11" r:id="rId35" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=53&amp;subject=5&amp;level=1&amp;college_code=10674&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="B12" r:id="rId36" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=43&amp;subject=5&amp;level=1&amp;college_code=10536&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="E12" r:id="rId37" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=33&amp;subject=5&amp;level=1&amp;college_code=16301&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="B13" r:id="rId38" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=32&amp;subject=5&amp;level=1&amp;college_code=10298&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="E13" r:id="rId39" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=12&amp;subject=5&amp;level=1&amp;college_code=10063&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="B14" r:id="rId40" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=50&amp;subject=5&amp;level=1&amp;college_code=10618&amp;batch=1&amp;province=43"/>
+    <hyperlink ref="E14" r:id="rId41" display="http://zhiyuan.edu.sina.com.cn/query/yxxq/?district_code=32&amp;subject=5&amp;level=1&amp;college_code=16302&amp;batch=1&amp;province=43"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId42"/>
@@ -2189,7 +2191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7349B0-654A-4A24-94F9-EAF824939C3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D237"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -5133,354 +5135,354 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school140.htm" xr:uid="{8E96CF25-DE8D-4C69-93B3-38D0C5C6CFD4}"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://gkcx.eol.cn/schoolhtm/140/SchoolJianZhang/SchoolJianZhang140.htm" xr:uid="{477C795A-0157-4F93-A029-5E4121593B9F}"/>
-    <hyperlink ref="C3" r:id="rId3" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/140/schoolSpecailtyMark.htm" xr:uid="{5774DCD2-9BA3-4688-BEC2-817E17E4773A}"/>
-    <hyperlink ref="A4" r:id="rId4" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school46.htm" xr:uid="{532C6930-BE37-4766-BA97-DCF92386C7E1}"/>
-    <hyperlink ref="B4" r:id="rId5" display="http://gkcx.eol.cn/schoolhtm/46/SchoolInfoAll1/SchoolInfoAll146.htm" xr:uid="{E66D3EF0-06C0-4A0D-877E-88ADA0CEAE94}"/>
-    <hyperlink ref="C4" r:id="rId6" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/46/schoolSpecailtyMark.htm" xr:uid="{FBDEFB5C-AC38-4C78-A0FB-CA54D0F5F676}"/>
-    <hyperlink ref="A5" r:id="rId7" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school30.htm" xr:uid="{4F8B99FD-EE75-4C2E-B773-DAF9F2FD0807}"/>
-    <hyperlink ref="B5" r:id="rId8" display="http://gkcx.eol.cn/schoolhtm/30/SchoolInfoAll1/SchoolInfoAll130.htm" xr:uid="{1D45B2AA-EA4A-4CAF-9060-C91FB414DBFD}"/>
-    <hyperlink ref="C5" r:id="rId9" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/30/schoolSpecailtyMark.htm" xr:uid="{4E0BD0E3-61A0-4489-8FFF-526DAEDB0F09}"/>
-    <hyperlink ref="A6" r:id="rId10" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school143.htm" xr:uid="{BFC5998F-EE3E-434C-AC8B-B7C320489553}"/>
-    <hyperlink ref="B6" r:id="rId11" display="http://gkcx.eol.cn/schoolhtm/143/SchoolInfoAll1/SchoolInfoAll1143.htm" xr:uid="{90B07D4E-F244-4E80-AFDB-F127D40482D0}"/>
-    <hyperlink ref="C6" r:id="rId12" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/143/schoolSpecailtyMark.htm" xr:uid="{5D5C48D7-3318-4044-8FB5-65740D7FC02F}"/>
-    <hyperlink ref="A7" r:id="rId13" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school556.htm" xr:uid="{213E348D-2771-4886-A44A-32A78631E3E5}"/>
-    <hyperlink ref="B7" r:id="rId14" display="http://gkcx.eol.cn/schoolhtm/556/SchoolInfoAll1/SchoolInfoAll1556.htm" xr:uid="{E9E6126F-366D-4039-889A-AED276FC064C}"/>
-    <hyperlink ref="C7" r:id="rId15" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/556/schoolSpecailtyMark.htm" xr:uid="{1B43E9E6-06A1-4B23-B4E7-6E6F662BBF92}"/>
-    <hyperlink ref="A8" r:id="rId16" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school557.htm" xr:uid="{B85F382C-1261-4454-B718-87DB94215866}"/>
-    <hyperlink ref="B8" r:id="rId17" display="http://gkcx.eol.cn/schoolhtm/557/SchoolInfoAll1/SchoolInfoAll1557.htm" xr:uid="{82F5BA39-A2BF-4343-8BEF-3FD5B53E2EBF}"/>
-    <hyperlink ref="C8" r:id="rId18" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/557/schoolSpecailtyMark.htm" xr:uid="{CD4A3C30-B85A-4456-9C4C-99D95C1D1A63}"/>
-    <hyperlink ref="A9" r:id="rId19" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school558.htm" xr:uid="{A51E6557-2A85-4095-9033-1E6F2D368613}"/>
-    <hyperlink ref="B9" r:id="rId20" display="http://gkcx.eol.cn/schoolhtm/558/SchoolInfoAll1/SchoolInfoAll1558.htm" xr:uid="{7AFCA092-35A3-464B-B138-A5680F67DF23}"/>
-    <hyperlink ref="C9" r:id="rId21" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/558/schoolSpecailtyMark.htm" xr:uid="{3A1D2FBA-1901-420D-9696-03E14CB129AB}"/>
-    <hyperlink ref="A10" r:id="rId22" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school52.htm" xr:uid="{C958BCE7-058B-4E51-AFAE-42840E2AF963}"/>
-    <hyperlink ref="B10" r:id="rId23" display="http://gkcx.eol.cn/schoolhtm/52/SchoolInfoAll1/SchoolInfoAll152.htm" xr:uid="{0F11CAD0-F5E2-4492-991D-0AE9E094CCDF}"/>
-    <hyperlink ref="C10" r:id="rId24" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/52/schoolSpecailtyMark.htm" xr:uid="{BF5283F6-989E-4326-AF74-26FD0CBB7562}"/>
-    <hyperlink ref="A11" r:id="rId25" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school53.htm" xr:uid="{3D655D72-9114-4ADD-9A21-BC5A2FB4D9CB}"/>
-    <hyperlink ref="B11" r:id="rId26" display="http://gkcx.eol.cn/schoolhtm/53/SchoolInfoAll1/SchoolInfoAll153.htm" xr:uid="{E3D2091D-F023-4735-831C-1AD04738081D}"/>
-    <hyperlink ref="C11" r:id="rId27" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/53/schoolSpecailtyMark.htm" xr:uid="{F834B920-6B49-4065-AB72-C8E77209B312}"/>
-    <hyperlink ref="A12" r:id="rId28" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school39.htm" xr:uid="{8481F857-F989-4903-A975-C6EF08F5D1A2}"/>
-    <hyperlink ref="B12" r:id="rId29" display="http://gkcx.eol.cn/schoolhtm/39/SchoolInfoAll1/SchoolInfoAll139.htm" xr:uid="{BF23F133-3D8B-4A77-B48C-7FA04753892D}"/>
-    <hyperlink ref="C12" r:id="rId30" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/39/schoolSpecailtyMark.htm" xr:uid="{A45195CF-312F-4E14-9E27-5FE892A147B0}"/>
-    <hyperlink ref="A13" r:id="rId31" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school1006.htm" xr:uid="{FC7ECDDB-056B-4BC4-8F69-7460DEF4A66A}"/>
-    <hyperlink ref="B13" r:id="rId32" display="http://gkcx.eol.cn/schoolhtm/1006/SchoolInfoAll1/SchoolInfoAll11006.htm" xr:uid="{620553FE-2962-4F18-9BA8-D195573B72F4}"/>
-    <hyperlink ref="C13" r:id="rId33" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/1006/schoolSpecailtyMark.htm" xr:uid="{72E45476-1D73-4A95-922B-DC75DAB3E555}"/>
-    <hyperlink ref="A14" r:id="rId34" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school569.htm" xr:uid="{2DA0072C-9670-4CFA-994E-E612ED7E3951}"/>
-    <hyperlink ref="B14" r:id="rId35" display="http://gkcx.eol.cn/schoolhtm/569/SchoolInfoAll1/SchoolInfoAll1569.htm" xr:uid="{BE408AA1-EB53-4D08-9985-82D18C2A4346}"/>
-    <hyperlink ref="C14" r:id="rId36" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/569/schoolSpecailtyMark.htm" xr:uid="{884906F1-1D30-4D41-A749-AEDAFB60FAD3}"/>
-    <hyperlink ref="A15" r:id="rId37" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school831.htm" xr:uid="{540B0D3E-B8AB-429A-9891-BD0B92B01017}"/>
-    <hyperlink ref="B15" r:id="rId38" display="http://gkcx.eol.cn/schoolhtm/831/SchoolInfoAll1/SchoolInfoAll1831.htm" xr:uid="{26A3BDC7-204A-4326-87F7-A7F2FB22E721}"/>
-    <hyperlink ref="C15" r:id="rId39" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/831/schoolSpecailtyMark.htm" xr:uid="{29A5877F-E634-4934-88D5-AA4534575676}"/>
-    <hyperlink ref="A17" r:id="rId40" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school31.htm" xr:uid="{2AA1A367-7268-49AC-A9D2-741225141077}"/>
-    <hyperlink ref="B17" r:id="rId41" display="http://gkcx.eol.cn/schoolhtm/31/SchoolInfoAll1/SchoolInfoAll131.htm" xr:uid="{6B15666F-F1A5-47CC-A4E5-B119DDDC9C65}"/>
-    <hyperlink ref="C17" r:id="rId42" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/31/schoolSpecailtyMark.htm" xr:uid="{E13F561B-17D7-46F7-9EF5-C333293333D1}"/>
-    <hyperlink ref="A18" r:id="rId43" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school38.htm" xr:uid="{B12C68A9-067B-4C96-AA92-9098AB1432CA}"/>
-    <hyperlink ref="B18" r:id="rId44" display="http://gkcx.eol.cn/schoolhtm/38/SchoolInfoAll1/SchoolInfoAll138.htm" xr:uid="{11B77D3F-785C-4B87-ABE4-21A2E180EA6E}"/>
-    <hyperlink ref="C18" r:id="rId45" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/38/schoolSpecailtyMark.htm" xr:uid="{DC96A75C-D15F-41BA-81F2-7A6DAAD76DB5}"/>
-    <hyperlink ref="A19" r:id="rId46" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school47.htm" xr:uid="{EE6D189D-31EB-4742-96EE-6ABAE2B58BCF}"/>
-    <hyperlink ref="B19" r:id="rId47" display="http://gkcx.eol.cn/schoolhtm/47/SchoolInfoAll1/SchoolInfoAll147.htm" xr:uid="{469DDE79-DB3B-4BAB-B7A4-85990B4C602D}"/>
-    <hyperlink ref="C19" r:id="rId48" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/47/schoolSpecailtyMark.htm" xr:uid="{653AFF26-854A-4C64-ABB0-65E1E093882C}"/>
-    <hyperlink ref="A20" r:id="rId49" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school144.htm" xr:uid="{317327F8-B6C1-43FB-9B20-29C5DC195C47}"/>
-    <hyperlink ref="B20" r:id="rId50" display="http://gkcx.eol.cn/schoolhtm/144/SchoolInfoAll1/SchoolInfoAll1144.htm" xr:uid="{FB9B9730-915F-465E-82AD-540583FE6826}"/>
-    <hyperlink ref="C20" r:id="rId51" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/144/schoolSpecailtyMark.htm" xr:uid="{83DB439A-1BFB-4FE2-B0C4-BAED45287AD7}"/>
-    <hyperlink ref="A21" r:id="rId52" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school48.htm" xr:uid="{D87E3C0F-D036-4FAB-890F-1B718A8A0078}"/>
-    <hyperlink ref="B21" r:id="rId53" display="http://gkcx.eol.cn/schoolhtm/48/SchoolInfoAll1/SchoolInfoAll148.htm" xr:uid="{B3778013-3261-45CF-95CB-19C3214905F1}"/>
-    <hyperlink ref="C21" r:id="rId54" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/48/schoolSpecailtyMark.htm" xr:uid="{DFB746CF-5F63-4B65-9085-A09110D6E817}"/>
-    <hyperlink ref="A22" r:id="rId55" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school43.htm" xr:uid="{072968AC-68CF-4E59-BB67-87AF128AA34C}"/>
-    <hyperlink ref="B22" r:id="rId56" display="http://gkcx.eol.cn/schoolhtm/43/SchoolInfoAll1/SchoolInfoAll143.htm" xr:uid="{B07671F9-65A8-43BD-BA3F-2C299E5BD3D6}"/>
-    <hyperlink ref="C22" r:id="rId57" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/43/schoolSpecailtyMark.htm" xr:uid="{77CEFD5C-7CCD-461C-ABD5-A77BD266F0AF}"/>
-    <hyperlink ref="A23" r:id="rId58" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school45.htm" xr:uid="{FF6EBC1B-ADD2-4314-8758-0F5072E4D767}"/>
-    <hyperlink ref="B23" r:id="rId59" display="http://gkcx.eol.cn/schoolhtm/45/SchoolInfoAll1/SchoolInfoAll145.htm" xr:uid="{5EC43A92-D6F5-4D54-A524-33E07446907B}"/>
-    <hyperlink ref="C23" r:id="rId60" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/45/schoolSpecailtyMark.htm" xr:uid="{0D412973-D0FD-4117-8137-FBD4990E6BE8}"/>
-    <hyperlink ref="A24" r:id="rId61" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school40.htm" xr:uid="{180C8C7C-006E-406C-B8DE-5F59A6760B64}"/>
-    <hyperlink ref="B24" r:id="rId62" display="http://gkcx.eol.cn/schoolhtm/40/SchoolJianZhang/SchoolJianZhang40.htm" xr:uid="{35609BE7-4D72-4195-958D-5F8A3E58298D}"/>
-    <hyperlink ref="C24" r:id="rId63" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/40/schoolSpecailtyMark.htm" xr:uid="{2DCCD3D1-2D8A-491A-A086-53BD4E1DAEB2}"/>
-    <hyperlink ref="A25" r:id="rId64" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school49.htm" xr:uid="{ACB94D27-CA5B-4367-B228-682901E7425E}"/>
-    <hyperlink ref="B25" r:id="rId65" display="http://gkcx.eol.cn/schoolhtm/49/SchoolInfoAll1/SchoolInfoAll149.htm" xr:uid="{BC2ECF20-BC09-48D5-B41C-0F8A182C3F75}"/>
-    <hyperlink ref="C25" r:id="rId66" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/49/schoolSpecailtyMark.htm" xr:uid="{9DED005B-E7BD-449B-B4F1-4B4590E8C442}"/>
-    <hyperlink ref="A26" r:id="rId67" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school830.htm" xr:uid="{1C3E1AD2-3B4F-4B9E-BD41-BD7EC88433FD}"/>
-    <hyperlink ref="B26" r:id="rId68" display="http://gkcx.eol.cn/schoolhtm/830/SchoolInfoAll1/SchoolInfoAll1830.htm" xr:uid="{E8099403-F34E-4E6B-95AA-D3A4D34572C6}"/>
-    <hyperlink ref="C26" r:id="rId69" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/830/schoolSpecailtyMark.htm" xr:uid="{1203475F-3309-41CD-A4DA-C997C58F7A6E}"/>
-    <hyperlink ref="A27" r:id="rId70" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school832.htm" xr:uid="{C3BBBF03-835F-419D-A779-81BD0F0932AE}"/>
-    <hyperlink ref="B27" r:id="rId71" display="http://gkcx.eol.cn/schoolhtm/832/SchoolInfoAll1/SchoolInfoAll1832.htm" xr:uid="{6FD89B7E-2489-467F-B96B-D7C0B90DBDB9}"/>
-    <hyperlink ref="C27" r:id="rId72" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/832/schoolSpecailtyMark.htm" xr:uid="{A5840D1C-DA8A-4A96-A046-6828918F2159}"/>
-    <hyperlink ref="A28" r:id="rId73" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school566.htm" xr:uid="{7AB98C56-71AF-4AD5-BF3F-682F97241495}"/>
-    <hyperlink ref="B28" r:id="rId74" display="http://gkcx.eol.cn/schoolhtm/566/SchoolInfoAll1/SchoolInfoAll1566.htm" xr:uid="{1D1FD24E-32C3-489B-8101-9F5FE119D276}"/>
-    <hyperlink ref="C28" r:id="rId75" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/566/schoolSpecailtyMark.htm" xr:uid="{F7C1C955-7E3E-479D-B9CE-7EDF255A5928}"/>
-    <hyperlink ref="A29" r:id="rId76" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school866.htm" xr:uid="{0428E9CB-8381-4A6D-9D07-D8C7A4797FCE}"/>
-    <hyperlink ref="B29" r:id="rId77" display="http://gkcx.eol.cn/schoolhtm/866/SchoolInfoAll1/SchoolInfoAll1866.htm" xr:uid="{62AEC7A0-3AC1-4C61-A7AD-90DCDE00056A}"/>
-    <hyperlink ref="C29" r:id="rId78" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/866/schoolSpecailtyMark.htm" xr:uid="{68F81678-44C0-465F-AA83-12C938FE41E3}"/>
-    <hyperlink ref="A32" r:id="rId79" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school136.htm" xr:uid="{12C053AE-5EA3-4635-93BD-FE10A33638C6}"/>
-    <hyperlink ref="B32" r:id="rId80" display="http://gkcx.eol.cn/schoolhtm/136/SchoolInfoAll1/SchoolInfoAll1136.htm" xr:uid="{AFDE8FFA-3853-48ED-86C9-92EE917B5651}"/>
-    <hyperlink ref="C32" r:id="rId81" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/136/schoolSpecailtyMark.htm" xr:uid="{C6F6CB6A-103E-4499-86E0-14AD793768FA}"/>
-    <hyperlink ref="A33" r:id="rId82" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school131.htm" xr:uid="{20A57908-D082-4BEB-A21C-50C95D7B2C09}"/>
-    <hyperlink ref="B33" r:id="rId83" display="http://gkcx.eol.cn/schoolhtm/131/SchoolInfoAll1/SchoolInfoAll1131.htm" xr:uid="{7559E184-C687-4BF4-956E-1F1E56040A5D}"/>
-    <hyperlink ref="C33" r:id="rId84" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/131/schoolSpecailtyMark.htm" xr:uid="{E0B6D1E7-6393-4B78-BB34-6AA5D2D55026}"/>
-    <hyperlink ref="A34" r:id="rId85" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school135.htm" xr:uid="{611ECFD7-80F0-43AA-AE27-EFCDBB3BE9AA}"/>
-    <hyperlink ref="B34" r:id="rId86" display="http://gkcx.eol.cn/schoolhtm/135/SchoolInfoAll1/SchoolInfoAll1135.htm" xr:uid="{3C2AC9D6-AEA3-4651-A82F-484F043BDB11}"/>
-    <hyperlink ref="C34" r:id="rId87" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/135/schoolSpecailtyMark.htm" xr:uid="{0B5C080A-00AE-4418-9BCA-86BF5D1E4808}"/>
-    <hyperlink ref="A35" r:id="rId88" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school133.htm" xr:uid="{67F1F6E8-DD44-4F15-87AC-343ACC488468}"/>
-    <hyperlink ref="B35" r:id="rId89" display="http://gkcx.eol.cn/schoolhtm/133/SchoolInfoAll1/SchoolInfoAll1133.htm" xr:uid="{29CDA07C-6EA6-48DE-8C94-00470D1DBA49}"/>
-    <hyperlink ref="C35" r:id="rId90" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/133/schoolSpecailtyMark.htm" xr:uid="{D985E69E-CA11-497F-98D3-37A820A078A6}"/>
-    <hyperlink ref="A36" r:id="rId91" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school125.htm" xr:uid="{6FF5BCBC-5562-46ED-8F6F-282715B1941F}"/>
-    <hyperlink ref="B36" r:id="rId92" display="http://gkcx.eol.cn/schoolhtm/125/SchoolInfoAll1/SchoolInfoAll1125.htm" xr:uid="{ABE76E2A-222F-4062-9E0F-12DFADF6B4B4}"/>
-    <hyperlink ref="C36" r:id="rId93" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/125/schoolSpecailtyMark.htm" xr:uid="{B4F5C936-29AC-4758-B5F0-0D8B0611DB52}"/>
-    <hyperlink ref="A38" r:id="rId94" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school132.htm" xr:uid="{2A433CBA-3310-48DF-ACB2-F7B7FE8DDE23}"/>
-    <hyperlink ref="B38" r:id="rId95" display="http://gkcx.eol.cn/schoolhtm/132/SchoolInfoAll1/SchoolInfoAll1132.htm" xr:uid="{3963B4BD-3EE2-483A-8773-6387FF2124A5}"/>
-    <hyperlink ref="C38" r:id="rId96" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/132/schoolSpecailtyMark.htm" xr:uid="{EB2CCB4E-12E5-4973-81AD-5D9AC9397C3D}"/>
-    <hyperlink ref="A39" r:id="rId97" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school76.htm" xr:uid="{C7E02431-6442-45AC-8BE5-E9844288A3FE}"/>
-    <hyperlink ref="B39" r:id="rId98" display="http://gkcx.eol.cn/schoolhtm/76/SchoolInfoAll1/SchoolInfoAll176.htm" xr:uid="{6E666D7F-A2F1-49B0-B70E-1E057A109F53}"/>
-    <hyperlink ref="C39" r:id="rId99" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/76/schoolSpecailtyMark.htm" xr:uid="{389E9332-5155-4C18-AF63-374F3AF868ED}"/>
-    <hyperlink ref="A40" r:id="rId100" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school130.htm" xr:uid="{AA919F21-A9C5-4AC8-A0F5-28E7747B98A6}"/>
-    <hyperlink ref="B40" r:id="rId101" display="http://gkcx.eol.cn/schoolhtm/130/SchoolInfoAll1/SchoolInfoAll1130.htm" xr:uid="{E4E551A8-8912-428B-A026-5AB4968A2690}"/>
-    <hyperlink ref="C40" r:id="rId102" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/130/schoolSpecailtyMark.htm" xr:uid="{D00C56BD-3193-4A4F-90E0-FBE8152BE9EB}"/>
-    <hyperlink ref="A41" r:id="rId103" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school73.htm" xr:uid="{31048B79-EE09-44CB-A7FF-DC782D250476}"/>
-    <hyperlink ref="B41" r:id="rId104" display="http://gkcx.eol.cn/schoolhtm/73/SchoolInfoAll1/SchoolInfoAll173.htm" xr:uid="{349A1E17-E56E-4282-BE89-9FFEDDAB8535}"/>
-    <hyperlink ref="C41" r:id="rId105" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/73/schoolSpecailtyMark.htm" xr:uid="{17878102-F555-4D1F-A1AB-100C90724730}"/>
-    <hyperlink ref="A45" r:id="rId106" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school59.htm" xr:uid="{49F0FFD5-49A6-4B58-8477-3B16408D93CC}"/>
-    <hyperlink ref="B45" r:id="rId107" display="http://gkcx.eol.cn/schoolhtm/59/SchoolInfoAll1/SchoolInfoAll159.htm" xr:uid="{F596F1C5-1BA1-45AF-AA6A-16B4B78BAAA4}"/>
-    <hyperlink ref="C45" r:id="rId108" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/59/schoolSpecailtyMark.htm" xr:uid="{A2C08399-4143-4E05-871F-7CC968608F53}"/>
-    <hyperlink ref="A46" r:id="rId109" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school78.htm" xr:uid="{6F891594-616E-43EC-9BD1-02488DEBF153}"/>
-    <hyperlink ref="B46" r:id="rId110" display="http://gkcx.eol.cn/schoolhtm/78/SchoolInfoAll1/SchoolInfoAll178.htm" xr:uid="{7D7F0BDC-FAD0-4C4A-B0B1-3936868D945B}"/>
-    <hyperlink ref="C46" r:id="rId111" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/78/schoolSpecailtyMark.htm" xr:uid="{498B9F7C-A58F-45B0-81C0-46FD1E173778}"/>
-    <hyperlink ref="A48" r:id="rId112" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school60.htm" xr:uid="{A3630B7C-2BA6-4582-A486-F8DC99B733A2}"/>
-    <hyperlink ref="B48" r:id="rId113" display="http://gkcx.eol.cn/schoolhtm/60/SchoolInfoAll1/SchoolInfoAll160.htm" xr:uid="{7FB32F1B-ABBC-4FAB-99FD-621A9DD28C84}"/>
-    <hyperlink ref="C48" r:id="rId114" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/60/schoolSpecailtyMark.htm" xr:uid="{376B791E-EDDC-4DD9-811D-520DAA92F444}"/>
-    <hyperlink ref="A49" r:id="rId115" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school41.htm" xr:uid="{3D15B224-2049-4480-BF00-E3CC3298FABF}"/>
-    <hyperlink ref="B49" r:id="rId116" display="http://gkcx.eol.cn/schoolhtm/41/SchoolInfoAll1/SchoolInfoAll141.htm" xr:uid="{7A6585E1-FE67-4AE0-BFF9-436E822BA093}"/>
-    <hyperlink ref="C49" r:id="rId117" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/41/schoolSpecailtyMark.htm" xr:uid="{4A48FA13-82E3-4E5C-8C72-36A23991E441}"/>
-    <hyperlink ref="A52" r:id="rId118" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school119.htm" xr:uid="{1F451757-85DA-4323-AADE-4447E7F05A0E}"/>
-    <hyperlink ref="B52" r:id="rId119" display="http://gkcx.eol.cn/schoolhtm/119/SchoolInfoAll1/SchoolInfoAll1119.htm" xr:uid="{EFA32B17-19D8-4CD2-8903-1AB0AAE83698}"/>
-    <hyperlink ref="C52" r:id="rId120" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/119/schoolSpecailtyMark.htm" xr:uid="{6C6B55ED-03FB-4162-A9D8-1CCE3D2F41AD}"/>
-    <hyperlink ref="A54" r:id="rId121" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school934.htm" xr:uid="{B5BE8004-B3A9-4EC0-ABF6-4B0D5180973D}"/>
-    <hyperlink ref="B54" r:id="rId122" display="http://gkcx.eol.cn/schoolhtm/934/SchoolInfoAll1/SchoolInfoAll1934.htm" xr:uid="{DDF1BF31-1595-4E15-B414-48CAB875E5F1}"/>
-    <hyperlink ref="C54" r:id="rId123" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/934/schoolSpecailtyMark.htm" xr:uid="{3BA92D0A-FD7B-47A4-BC1B-AE73327D63F1}"/>
-    <hyperlink ref="A57" r:id="rId124" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school591.htm" xr:uid="{B15AEE3A-CF14-4193-85E1-4F232BB0C42B}"/>
-    <hyperlink ref="B57" r:id="rId125" display="http://gkcx.eol.cn/schoolhtm/591/SchoolInfoAll1/SchoolInfoAll1591.htm" xr:uid="{A2C43E01-DD2C-4DB1-B16D-7D6324B849CC}"/>
-    <hyperlink ref="C57" r:id="rId126" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/591/schoolSpecailtyMark.htm" xr:uid="{09C190C1-CC13-4D6A-B4B1-3FCB75DA4430}"/>
-    <hyperlink ref="A64" r:id="rId127" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school139.htm" xr:uid="{460EF4EF-724F-4C4F-B38E-878B9E72E98C}"/>
-    <hyperlink ref="B64" r:id="rId128" display="http://gkcx.eol.cn/schoolhtm/139/SchoolInfoAll1/SchoolInfoAll1139.htm" xr:uid="{2E92D719-CE50-4588-BD10-444CC7701654}"/>
-    <hyperlink ref="C64" r:id="rId129" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/139/schoolSpecailtyMark.htm" xr:uid="{350A87E5-97B6-4833-A18C-3BC49545D0F3}"/>
-    <hyperlink ref="A69" r:id="rId130" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school32.htm" xr:uid="{0DC88A60-A361-4D54-9ED8-269E3E274BDF}"/>
-    <hyperlink ref="B69" r:id="rId131" display="http://gkcx.eol.cn/schoolhtm/32/SchoolInfoAll1/SchoolInfoAll132.htm" xr:uid="{37F0CEDD-C8C1-46DE-A00B-0A7EC8152EF1}"/>
-    <hyperlink ref="C69" r:id="rId132" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/32/schoolSpecailtyMark.htm" xr:uid="{4F335579-E32A-4046-81BB-06088E26408C}"/>
-    <hyperlink ref="A74" r:id="rId133" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school138.htm" xr:uid="{8E97BC8B-FDB8-496F-BCA6-A6D32D560AC4}"/>
-    <hyperlink ref="B74" r:id="rId134" display="http://gkcx.eol.cn/schoolhtm/138/SchoolInfoAll1/SchoolInfoAll1138.htm" xr:uid="{B3C7EE1E-6849-47F5-97AE-8A798A9F8781}"/>
-    <hyperlink ref="C74" r:id="rId135" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/138/schoolSpecailtyMark.htm" xr:uid="{0FECB9B2-404E-4145-A952-DA37A9FC41B1}"/>
-    <hyperlink ref="A75" r:id="rId136" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school50.htm" xr:uid="{E04C6C7E-71FD-4B26-B456-04E602AF0BEC}"/>
-    <hyperlink ref="B75" r:id="rId137" display="http://gkcx.eol.cn/schoolhtm/50/SchoolInfoAll1/SchoolInfoAll150.htm" xr:uid="{D00812B8-8FC4-46C4-81D6-98AFB98A267E}"/>
-    <hyperlink ref="C75" r:id="rId138" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/50/schoolSpecailtyMark.htm" xr:uid="{B784A663-8ADE-4EC5-B5A9-772D04DB0D77}"/>
-    <hyperlink ref="A77" r:id="rId139" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school134.htm" xr:uid="{BCED08D1-F467-4D93-84DE-535E468B3C8B}"/>
-    <hyperlink ref="B77" r:id="rId140" display="http://gkcx.eol.cn/schoolhtm/134/SchoolInfoAll1/SchoolInfoAll1134.htm" xr:uid="{C7F4F898-7958-47C4-84EA-332016BB0DC5}"/>
-    <hyperlink ref="C77" r:id="rId141" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/134/schoolSpecailtyMark.htm" xr:uid="{9229C2C9-8D90-4274-A267-60CA89EEACF5}"/>
-    <hyperlink ref="A78" r:id="rId142" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school33.htm" xr:uid="{F2384E3D-29E5-4109-AA91-E5557D8BE3E9}"/>
-    <hyperlink ref="B78" r:id="rId143" display="http://gkcx.eol.cn/schoolhtm/33/SchoolInfoAll1/SchoolInfoAll133.htm" xr:uid="{4151A6A8-4DA5-4D2B-9381-02AB5ACD5E93}"/>
-    <hyperlink ref="C78" r:id="rId144" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/33/schoolSpecailtyMark.htm" xr:uid="{6F12758C-9DE9-4D20-BA1D-09B231949031}"/>
-    <hyperlink ref="A81" r:id="rId145" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school122.htm" xr:uid="{8FC54983-C8D1-41CA-9856-D0C6C16C36AE}"/>
-    <hyperlink ref="B81" r:id="rId146" display="http://gkcx.eol.cn/schoolhtm/122/SchoolPlan/SchoolPlan122.htm" xr:uid="{AE744D53-4FC4-4798-A83B-520E12AC1193}"/>
-    <hyperlink ref="C81" r:id="rId147" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/122/schoolSpecailtyMark.htm" xr:uid="{20EBF0EA-1707-4651-ABF1-48BA0DDBB928}"/>
-    <hyperlink ref="A82" r:id="rId148" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school129.htm" xr:uid="{EA4F5F41-4872-4DF0-AB16-A4C1D9F98D0F}"/>
-    <hyperlink ref="B82" r:id="rId149" display="http://gkcx.eol.cn/schoolhtm/129/SchoolPlan/SchoolPlan129.htm" xr:uid="{5FAC5753-E511-466A-93B7-AD71830BE5B9}"/>
-    <hyperlink ref="C82" r:id="rId150" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/129/schoolSpecailtyMark.htm" xr:uid="{8A1D3257-3BB8-4360-B127-8D0092B86F89}"/>
-    <hyperlink ref="A84" r:id="rId151" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school142.htm" xr:uid="{F587EEC6-3E43-4B03-AA97-DAD20C42B7C4}"/>
-    <hyperlink ref="B84" r:id="rId152" display="http://gkcx.eol.cn/schoolhtm/142/SchoolInfoAll1/SchoolInfoAll1142.htm" xr:uid="{D6F62C49-B5F3-40C4-91E8-878A5935F36B}"/>
-    <hyperlink ref="C84" r:id="rId153" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/142/schoolSpecailtyMark.htm" xr:uid="{7D542228-AA07-4C0D-9582-00468C58729B}"/>
-    <hyperlink ref="A88" r:id="rId154" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school34.htm" xr:uid="{2A8AA2D3-8528-47B8-BEA2-FB1A40988332}"/>
-    <hyperlink ref="B88" r:id="rId155" display="http://gkcx.eol.cn/schoolhtm/34/SchoolInfoAll1/SchoolInfoAll134.htm" xr:uid="{B0223ADE-B553-4E14-AB22-096BA9D79136}"/>
-    <hyperlink ref="C88" r:id="rId156" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/34/schoolSpecailtyMark.htm" xr:uid="{71A82CA8-6133-4337-91B8-9140EF0413A8}"/>
-    <hyperlink ref="A89" r:id="rId157" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school137.htm" xr:uid="{77B8576C-B8C5-4F3B-9495-201E562DF97F}"/>
-    <hyperlink ref="B89" r:id="rId158" display="http://gkcx.eol.cn/schoolhtm/137/SchoolInfoAll1/SchoolInfoAll1137.htm" xr:uid="{6E56FB38-4C1B-4319-B82B-AE7EE1F33FA4}"/>
-    <hyperlink ref="C89" r:id="rId159" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/137/schoolSpecailtyMark.htm" xr:uid="{D81A21D6-B873-47A0-A557-BC2B405F31F7}"/>
-    <hyperlink ref="A91" r:id="rId160" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school124.htm" xr:uid="{E8A064C7-52A7-433F-BF59-412BDDD74280}"/>
-    <hyperlink ref="B91" r:id="rId161" display="http://gkcx.eol.cn/schoolhtm/124/SchoolInfoAll1/SchoolInfoAll1124.htm" xr:uid="{C9D3D3B4-3326-483B-B1EB-D456CCA78844}"/>
-    <hyperlink ref="C91" r:id="rId162" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/124/schoolSpecailtyMark.htm" xr:uid="{D73D256E-2F57-4408-86CE-ABC587E0E171}"/>
-    <hyperlink ref="A92" r:id="rId163" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school419.htm" xr:uid="{112A7506-5582-4FCF-91EA-E53B3A434F63}"/>
-    <hyperlink ref="B92" r:id="rId164" display="http://gkcx.eol.cn/schoolhtm/419/SchoolInfoAll1/SchoolInfoAll1419.htm" xr:uid="{AE5E5EB5-6323-425B-A438-777F61F185C6}"/>
-    <hyperlink ref="C92" r:id="rId165" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/419/schoolSpecailtyMark.htm" xr:uid="{BF791DE5-5C0D-44D2-90BB-3C4D4FDCE738}"/>
-    <hyperlink ref="A95" r:id="rId166" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school111.htm" xr:uid="{43338D8D-0539-43E3-8396-3E776A16BFB8}"/>
-    <hyperlink ref="B95" r:id="rId167" display="http://gkcx.eol.cn/schoolhtm/111/SchoolInfoAll1/SchoolInfoAll1111.htm" xr:uid="{CDCFDBC4-4330-4BA0-8732-C1715F857B07}"/>
-    <hyperlink ref="C95" r:id="rId168" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/111/schoolSpecailtyMark.htm" xr:uid="{41A37931-9CE3-4E62-B852-F816275D07F4}"/>
-    <hyperlink ref="A96" r:id="rId169" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school118.htm" xr:uid="{CBADC2BF-99FF-45D6-B767-F211B34083C1}"/>
-    <hyperlink ref="B96" r:id="rId170" display="http://gkcx.eol.cn/schoolhtm/118/SchoolInfoAll1/SchoolInfoAll1118.htm" xr:uid="{2129594E-B8E3-4B35-866E-56667EB24B7E}"/>
-    <hyperlink ref="C96" r:id="rId171" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/118/schoolSpecailtyMark.htm" xr:uid="{26DF8379-4732-4109-8BB3-439D5200CD36}"/>
-    <hyperlink ref="A97" r:id="rId172" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school110.htm" xr:uid="{C673AECF-1D61-4D9E-BF9F-C78B0824FA0C}"/>
-    <hyperlink ref="B97" r:id="rId173" display="http://gkcx.eol.cn/schoolhtm/110/SchoolInfoAll1/SchoolInfoAll1110.htm" xr:uid="{D96FB3DC-0033-4D9A-9169-78EBEACF6EE8}"/>
-    <hyperlink ref="C97" r:id="rId174" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/110/schoolSpecailtyMark.htm" xr:uid="{993BEC8D-4CA1-4540-B34C-58C5F8BE0E3E}"/>
-    <hyperlink ref="A98" r:id="rId175" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school116.htm" xr:uid="{EDA58DA8-EE1F-4FBA-9607-DC4CF6493F94}"/>
-    <hyperlink ref="B98" r:id="rId176" display="http://gkcx.eol.cn/schoolhtm/116/SchoolInfoAll1/SchoolInfoAll1116.htm" xr:uid="{F269DF71-28AF-4DE8-9881-B6F8D92EE6C6}"/>
-    <hyperlink ref="C98" r:id="rId177" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/116/schoolSpecailtyMark.htm" xr:uid="{A790212E-87F1-4DA9-8C95-AD019D530E9B}"/>
-    <hyperlink ref="A99" r:id="rId178" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school86.htm" xr:uid="{7343A767-499B-4415-ADEF-D0BBE1A8FEBB}"/>
-    <hyperlink ref="B99" r:id="rId179" display="http://gkcx.eol.cn/schoolhtm/86/SchoolInfoAll1/SchoolInfoAll186.htm" xr:uid="{499408D5-7A1A-4294-A8A9-50418C3FF7B6}"/>
-    <hyperlink ref="C99" r:id="rId180" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/86/schoolSpecailtyMark.htm" xr:uid="{1A2776C9-8FA9-4CCA-AC98-E845B41B44B7}"/>
-    <hyperlink ref="A100" r:id="rId181" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school77.htm" xr:uid="{F4132D1D-2FC8-4958-99DD-1BE77EFF4C4D}"/>
-    <hyperlink ref="B100" r:id="rId182" display="http://gkcx.eol.cn/schoolhtm/77/SchoolInfoAll1/SchoolInfoAll177.htm" xr:uid="{32A860AC-D11A-4F18-BE70-CEB64187D8D9}"/>
-    <hyperlink ref="C100" r:id="rId183" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/77/schoolSpecailtyMark.htm" xr:uid="{BDAA1468-B0A7-4F8E-AC33-AD3B0BD83DD9}"/>
-    <hyperlink ref="A102" r:id="rId184" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school109.htm" xr:uid="{B3158B6F-7F54-4167-AB33-1F99DDB1948B}"/>
-    <hyperlink ref="B102" r:id="rId185" display="http://gkcx.eol.cn/schoolhtm/109/SchoolInfoAll1/SchoolInfoAll1109.htm" xr:uid="{6AD8E7EF-9CA4-49ED-BDB1-54A5DB300031}"/>
-    <hyperlink ref="C102" r:id="rId186" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/109/schoolSpecailtyMark.htm" xr:uid="{ED7A36B0-AFA4-4570-8904-AC887C1609C8}"/>
-    <hyperlink ref="A103" r:id="rId187" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school115.htm" xr:uid="{D77E1D1C-CCB1-4B80-A01C-6508F2684BDB}"/>
-    <hyperlink ref="B103" r:id="rId188" display="http://gkcx.eol.cn/schoolhtm/115/SchoolInfoAll1/SchoolInfoAll1115.htm" xr:uid="{13BD31E1-5C57-4551-BEB8-CE8A2CBA55D3}"/>
-    <hyperlink ref="C103" r:id="rId189" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/115/schoolSpecailtyMark.htm" xr:uid="{73C2FD5F-0558-4988-B414-8E095E3FD063}"/>
-    <hyperlink ref="A104" r:id="rId190" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school117.htm" xr:uid="{611C65E9-E69D-4B9D-B3DA-FD3F59729402}"/>
-    <hyperlink ref="B104" r:id="rId191" display="http://gkcx.eol.cn/schoolhtm/117/SchoolInfoAll1/SchoolInfoAll1117.htm" xr:uid="{C17875A1-2140-4880-A835-B92DB12CE6EC}"/>
-    <hyperlink ref="C104" r:id="rId192" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/117/schoolSpecailtyMark.htm" xr:uid="{BF1E7471-75EA-46BB-BDF1-8A7D6C7F8683}"/>
-    <hyperlink ref="A105" r:id="rId193" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school112.htm" xr:uid="{D3F9F213-635B-43DF-9444-743FC4C05007}"/>
-    <hyperlink ref="B105" r:id="rId194" display="http://gkcx.eol.cn/schoolhtm/112/SchoolPlan/SchoolPlan112.htm" xr:uid="{0208E6A8-2B3D-487C-A075-6B49E38298F7}"/>
-    <hyperlink ref="C105" r:id="rId195" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/112/schoolSpecailtyMark.htm" xr:uid="{A415C269-3F59-487E-A5F3-ADB7BFDBD130}"/>
-    <hyperlink ref="A106" r:id="rId196" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school113.htm" xr:uid="{57C6FEBB-4E71-470C-AA3E-84427ED2A5B3}"/>
-    <hyperlink ref="B106" r:id="rId197" display="http://gkcx.eol.cn/schoolhtm/113/SchoolInfoAll1/SchoolInfoAll1113.htm" xr:uid="{259DCD19-8310-44FE-9064-F03AF98F8516}"/>
-    <hyperlink ref="C106" r:id="rId198" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/113/schoolSpecailtyMark.htm" xr:uid="{ABD16F87-5605-4264-8077-02D2C18E146B}"/>
-    <hyperlink ref="A110" r:id="rId199" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school114.htm" xr:uid="{FFBF4914-C6F8-49AC-9976-AE3AEBDE1AC7}"/>
-    <hyperlink ref="B110" r:id="rId200" display="http://gkcx.eol.cn/schoolhtm/114/SchoolInfoAll1/SchoolInfoAll1114.htm" xr:uid="{1C947F84-2290-4F8C-A64D-B03FB42FA7B1}"/>
-    <hyperlink ref="C110" r:id="rId201" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/114/schoolSpecailtyMark.htm" xr:uid="{954C08FF-76C7-48C0-9A2D-C19C5C41ACFA}"/>
-    <hyperlink ref="A115" r:id="rId202" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school66.htm" xr:uid="{917EFBB1-4775-43AD-B16E-16256788F6FB}"/>
-    <hyperlink ref="B115" r:id="rId203" display="http://gkcx.eol.cn/schoolhtm/66/SchoolInfoAll1/SchoolInfoAll166.htm" xr:uid="{1C240861-BBD3-4B65-ADDA-B1DB33F82977}"/>
-    <hyperlink ref="C115" r:id="rId204" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/66/schoolSpecailtyMark.htm" xr:uid="{05967C89-26F2-47B4-B6FC-E092A2CD50E1}"/>
-    <hyperlink ref="A116" r:id="rId205" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school63.htm" xr:uid="{A6897AD4-B364-4A2A-954C-90F5334EBAFA}"/>
-    <hyperlink ref="B116" r:id="rId206" display="http://gkcx.eol.cn/schoolhtm/63/SchoolInfoAll1/SchoolInfoAll163.htm" xr:uid="{61C18098-7C97-4526-8243-A087C6ED9E30}"/>
-    <hyperlink ref="C116" r:id="rId207" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/63/schoolSpecailtyMark.htm" xr:uid="{230BABFF-E209-483F-9ADD-83B5F7BC2DEC}"/>
-    <hyperlink ref="A118" r:id="rId208" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school67.htm" xr:uid="{C070061E-AF2C-4A7F-B188-0AEDF1149356}"/>
-    <hyperlink ref="B118" r:id="rId209" display="http://gkcx.eol.cn/schoolhtm/67/SchoolInfoAll1/SchoolInfoAll167.htm" xr:uid="{AD547174-9372-4E68-8380-257F2CF09A0C}"/>
-    <hyperlink ref="C118" r:id="rId210" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/67/schoolSpecailtyMark.htm" xr:uid="{1EF09F59-4EA7-4523-B7DC-80AD70080597}"/>
-    <hyperlink ref="A122" r:id="rId211" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school102.htm" xr:uid="{D7B56ACA-7AD9-4B81-9F4A-AD4444A33C71}"/>
-    <hyperlink ref="B122" r:id="rId212" display="http://gkcx.eol.cn/schoolhtm/102/SchoolInfoAll1/SchoolInfoAll1102.htm" xr:uid="{9BEC11CD-668F-4EC9-8A44-A44A96FCFA9E}"/>
-    <hyperlink ref="C122" r:id="rId213" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/102/schoolSpecailtyMark.htm" xr:uid="{18FD5303-EE93-4D93-BCF6-5631B1C15970}"/>
-    <hyperlink ref="A124" r:id="rId214" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school103.htm" xr:uid="{BDECCDF8-FEB5-4382-AB77-733412D9E9D5}"/>
-    <hyperlink ref="B124" r:id="rId215" display="http://gkcx.eol.cn/schoolhtm/103/SchoolInfoAll1/SchoolInfoAll1103.htm" xr:uid="{2545ADE2-B897-4886-99A2-CA6744B5A975}"/>
-    <hyperlink ref="C124" r:id="rId216" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/103/schoolSpecailtyMark.htm" xr:uid="{E3065BEB-C6B7-4D92-A48F-567AC15E0A92}"/>
-    <hyperlink ref="A127" r:id="rId217" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school108.htm" xr:uid="{218120D0-C7C3-40B1-BEA7-F1EF200EB504}"/>
-    <hyperlink ref="B127" r:id="rId218" display="http://gkcx.eol.cn/schoolhtm/108/SchoolInfoAll1/SchoolInfoAll1108.htm" xr:uid="{CACEAACF-1288-48BD-B67A-4A42C54647E1}"/>
-    <hyperlink ref="C127" r:id="rId219" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/108/schoolSpecailtyMark.htm" xr:uid="{4B352147-33B0-4309-8D17-BED2DA37D819}"/>
-    <hyperlink ref="A132" r:id="rId220" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school126.htm" xr:uid="{ABEED8CD-AE79-4156-B163-9E46102C95B2}"/>
-    <hyperlink ref="B132" r:id="rId221" display="http://gkcx.eol.cn/schoolhtm/126/SchoolInfoAll1/SchoolInfoAll1126.htm" xr:uid="{6E9BE6A8-4473-4FD6-BE9D-11A75F9362BE}"/>
-    <hyperlink ref="C132" r:id="rId222" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/126/schoolSpecailtyMark.htm" xr:uid="{946F37CD-8CC4-4D8D-B542-EE208BCF0908}"/>
-    <hyperlink ref="A133" r:id="rId223" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school120.htm" xr:uid="{1C7519CC-B355-4070-A2AD-7AECB14770B6}"/>
-    <hyperlink ref="B133" r:id="rId224" display="http://gkcx.eol.cn/schoolhtm/120/SchoolInfoAll1/SchoolInfoAll1120.htm" xr:uid="{162F6EBE-E847-481F-93CA-7A796F007FE5}"/>
-    <hyperlink ref="C133" r:id="rId225" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/120/schoolSpecailtyMark.htm" xr:uid="{51B2335B-A162-40CB-9BD8-3861DF04041D}"/>
-    <hyperlink ref="A135" r:id="rId226" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school61.htm" xr:uid="{1E31DB3A-E799-43EA-8964-6B15FCA21BAD}"/>
-    <hyperlink ref="B135" r:id="rId227" display="http://gkcx.eol.cn/schoolhtm/61/SchoolInfoAll1/SchoolInfoAll161.htm" xr:uid="{2153A21F-278B-4C6A-BD5A-475D93EAD7A4}"/>
-    <hyperlink ref="C135" r:id="rId228" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/61/schoolSpecailtyMark.htm" xr:uid="{23088C67-4E0F-4FC9-9FB0-235709B941B2}"/>
-    <hyperlink ref="A139" r:id="rId229" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school62.htm" xr:uid="{1A4EE3FD-40BB-43DB-AC42-A9A96C7990BB}"/>
-    <hyperlink ref="B139" r:id="rId230" display="http://gkcx.eol.cn/schoolhtm/62/SchoolInfoAll1/SchoolInfoAll162.htm" xr:uid="{A813CF32-DC20-4705-B6F7-42097CB1D07E}"/>
-    <hyperlink ref="C139" r:id="rId231" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/62/schoolSpecailtyMark.htm" xr:uid="{CE5FD39E-AA29-48C4-B7FA-DB3BFA4F7747}"/>
-    <hyperlink ref="A144" r:id="rId232" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school42.htm" xr:uid="{08F0BC12-8FFE-42BD-9930-08F920E80895}"/>
-    <hyperlink ref="B144" r:id="rId233" display="http://gkcx.eol.cn/schoolhtm/42/SchoolInfoAll1/SchoolInfoAll142.htm" xr:uid="{F1936779-F5A1-4C6F-AB57-868C33D0B037}"/>
-    <hyperlink ref="C144" r:id="rId234" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/42/schoolSpecailtyMark.htm" xr:uid="{49EACCEE-B6B3-4FAE-94C3-7F5FACAC5E38}"/>
-    <hyperlink ref="A145" r:id="rId235" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school128.htm" xr:uid="{B300F801-C5AD-43D0-97FB-DA1679CE1FD3}"/>
-    <hyperlink ref="B145" r:id="rId236" display="http://gkcx.eol.cn/schoolhtm/128/SchoolInfoAll1/SchoolInfoAll1128.htm" xr:uid="{9EE0A249-5DAD-482C-AA46-091435749549}"/>
-    <hyperlink ref="C145" r:id="rId237" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/128/schoolSpecailtyMark.htm" xr:uid="{4AD2D8FC-DD61-4BBA-B0CF-9D6ADFFBACD7}"/>
-    <hyperlink ref="A146" r:id="rId238" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school420.htm" xr:uid="{BAAA460F-9039-4787-B407-A64CCEB898E6}"/>
-    <hyperlink ref="B146" r:id="rId239" display="http://gkcx.eol.cn/schoolhtm/420/SchoolPlan/SchoolPlan420.htm" xr:uid="{A4675189-AA83-4BC5-9030-715270076AE6}"/>
-    <hyperlink ref="C146" r:id="rId240" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/420/schoolSpecailtyMark.htm" xr:uid="{30CBE4E8-360B-43EB-A4D1-9BDF4217869F}"/>
-    <hyperlink ref="A147" r:id="rId241" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school121.htm" xr:uid="{706ADD50-C219-4506-BD10-EC7F5EBD6E52}"/>
-    <hyperlink ref="B147" r:id="rId242" display="http://gkcx.eol.cn/schoolhtm/121/SchoolInfoAll1/SchoolInfoAll1121.htm" xr:uid="{1D82A052-6576-470A-9EEE-525E1B5E7A23}"/>
-    <hyperlink ref="C147" r:id="rId243" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/121/schoolSpecailtyMark.htm" xr:uid="{08687530-F41C-4262-B830-390ADAF193AF}"/>
-    <hyperlink ref="A149" r:id="rId244" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school127.htm" xr:uid="{D5BEFA2C-CFF6-4FC6-B591-0FBFCD7274F3}"/>
-    <hyperlink ref="B149" r:id="rId245" display="http://gkcx.eol.cn/schoolhtm/127/SchoolInfoAll1/SchoolInfoAll1127.htm" xr:uid="{9976BFD8-4CC8-4F49-BA23-64FBDF8700DD}"/>
-    <hyperlink ref="C149" r:id="rId246" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/127/schoolSpecailtyMark.htm" xr:uid="{106A9536-0A8A-401C-BF57-C960C9B27878}"/>
-    <hyperlink ref="A150" r:id="rId247" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school414.htm" xr:uid="{87BB8A72-6D3E-4FD3-B5A8-E83C4224D692}"/>
-    <hyperlink ref="B150" r:id="rId248" display="http://gkcx.eol.cn/schoolhtm/414/SchoolInfoAll1/SchoolInfoAll1414.htm" xr:uid="{B4AA2EFC-5CC1-4C92-BBFE-90616F0C37F7}"/>
-    <hyperlink ref="C150" r:id="rId249" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/414/schoolSpecailtyMark.htm" xr:uid="{B1BE6467-24C2-4DC4-ADE8-0BFCAC00B3A1}"/>
-    <hyperlink ref="A151" r:id="rId250" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school417.htm" xr:uid="{F0B53079-5557-4ACC-9FDF-632671C8E9F1}"/>
-    <hyperlink ref="B151" r:id="rId251" display="http://gkcx.eol.cn/schoolhtm/417/SchoolInfoAll1/SchoolInfoAll1417.htm" xr:uid="{40A04608-E3FA-4635-8AAC-BE947EDD4E51}"/>
-    <hyperlink ref="C151" r:id="rId252" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/417/schoolSpecailtyMark.htm" xr:uid="{43C940DD-C4F5-41B5-97E6-392C0C009609}"/>
-    <hyperlink ref="A155" r:id="rId253" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school44.htm" xr:uid="{01A78890-48DF-4943-95C1-2F78D11E9330}"/>
-    <hyperlink ref="B155" r:id="rId254" display="http://gkcx.eol.cn/schoolhtm/44/SchoolInfoAll1/SchoolInfoAll144.htm" xr:uid="{91188735-8E20-4AD5-A193-DF13BFB0CF96}"/>
-    <hyperlink ref="C155" r:id="rId255" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/44/schoolSpecailtyMark.htm" xr:uid="{7B8155E1-494D-4F33-8978-82BCA2AADC49}"/>
-    <hyperlink ref="A156" r:id="rId256" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school58.htm" xr:uid="{CBCB6096-91C6-4628-9BFD-373D40A678C9}"/>
-    <hyperlink ref="B156" r:id="rId257" display="http://gkcx.eol.cn/schoolhtm/58/SchoolInfoAll1/SchoolInfoAll158.htm" xr:uid="{28B7C41D-CA2A-4238-8555-AB62EC45195B}"/>
-    <hyperlink ref="C156" r:id="rId258" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/58/schoolSpecailtyMark.htm" xr:uid="{BAD03A20-B345-4D51-A09C-E1A7545880D2}"/>
-    <hyperlink ref="A158" r:id="rId259" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school123.htm" xr:uid="{E9615950-427A-43D1-AD64-C007B21636B1}"/>
-    <hyperlink ref="B158" r:id="rId260" display="http://gkcx.eol.cn/schoolhtm/123/SchoolInfoAll1/SchoolInfoAll1123.htm" xr:uid="{4DCBF14E-8CCB-40E7-B753-F17068D395D5}"/>
-    <hyperlink ref="C158" r:id="rId261" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/123/schoolSpecailtyMark.htm" xr:uid="{51AEE2F6-FB93-4833-A5C2-FDD340A1B681}"/>
-    <hyperlink ref="A162" r:id="rId262" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school104.htm" xr:uid="{2D96827C-BB6E-4DBB-AA5E-326D7CA7B345}"/>
-    <hyperlink ref="B162" r:id="rId263" display="http://gkcx.eol.cn/schoolhtm/104/SchoolInfoAll1/SchoolInfoAll1104.htm" xr:uid="{179DB405-5220-43CE-BBD9-EAB01F98FCC9}"/>
-    <hyperlink ref="C162" r:id="rId264" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/104/schoolSpecailtyMark.htm" xr:uid="{9796973D-C0EA-4380-84E6-D3831B88F0FD}"/>
-    <hyperlink ref="A163" r:id="rId265" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school105.htm" xr:uid="{E8860197-DAA0-4A13-BA0A-3EDF2A59041A}"/>
-    <hyperlink ref="B163" r:id="rId266" display="http://gkcx.eol.cn/schoolhtm/105/SchoolInfoAll1/SchoolInfoAll1105.htm" xr:uid="{44133627-5786-4B93-B96F-0DC039FB4221}"/>
-    <hyperlink ref="C163" r:id="rId267" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/105/schoolSpecailtyMark.htm" xr:uid="{DDF70A54-467C-4334-BC17-777D5D69128E}"/>
-    <hyperlink ref="A165" r:id="rId268" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school106.htm" xr:uid="{3A5AB2BA-14B0-4BAF-82E4-3DAC34959539}"/>
-    <hyperlink ref="B165" r:id="rId269" display="http://gkcx.eol.cn/schoolhtm/106/SchoolInfoAll1/SchoolInfoAll1106.htm" xr:uid="{B326B348-4E4B-4686-B300-A07B90A94608}"/>
-    <hyperlink ref="C165" r:id="rId270" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/106/schoolSpecailtyMark.htm" xr:uid="{E9EC5284-3CBB-44C6-B408-4704AFDA5645}"/>
-    <hyperlink ref="A166" r:id="rId271" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school98.htm" xr:uid="{08A33590-2EB3-4C55-8C1F-2220BBA2F057}"/>
-    <hyperlink ref="B166" r:id="rId272" display="http://gkcx.eol.cn/schoolhtm/98/SchoolInfoAll1/SchoolInfoAll198.htm" xr:uid="{9AB6B325-A670-48BC-BFAA-424A6EA573E3}"/>
-    <hyperlink ref="C166" r:id="rId273" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/98/schoolSpecailtyMark.htm" xr:uid="{812A6EAC-BE79-4F28-A727-9B52996025A7}"/>
-    <hyperlink ref="A169" r:id="rId274" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school96.htm" xr:uid="{0BD0489A-A479-4372-93EA-5B08152290B2}"/>
-    <hyperlink ref="B169" r:id="rId275" display="http://gkcx.eol.cn/schoolhtm/96/SchoolInfoAll1/SchoolInfoAll196.htm" xr:uid="{D0663097-CEB5-4536-BBF7-BEC6886A0FCF}"/>
-    <hyperlink ref="C169" r:id="rId276" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/96/schoolSpecailtyMark.htm" xr:uid="{F5683C79-C09D-4F11-9CED-E131E876D4F4}"/>
-    <hyperlink ref="A174" r:id="rId277" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school99.htm" xr:uid="{9504BCDE-3EF5-4E39-B981-E0957D684E0D}"/>
-    <hyperlink ref="B174" r:id="rId278" display="http://gkcx.eol.cn/schoolhtm/99/SchoolInfoAll1/SchoolInfoAll199.htm" xr:uid="{DDA20F9E-AD9D-4405-8AF3-069FDE923B11}"/>
-    <hyperlink ref="C174" r:id="rId279" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/99/schoolSpecailtyMark.htm" xr:uid="{9CE201A0-F32C-4398-B4B8-44EC10F8A297}"/>
-    <hyperlink ref="A175" r:id="rId280" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school661.htm" xr:uid="{83B50E87-3A90-4C2F-8459-D7288FFCFE72}"/>
-    <hyperlink ref="B175" r:id="rId281" display="http://gkcx.eol.cn/schoolhtm/661/SchoolInfoAll1/SchoolInfoAll1661.htm" xr:uid="{15FB5875-496E-4D88-865E-41AA9E6D8FFC}"/>
-    <hyperlink ref="C175" r:id="rId282" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/661/schoolSpecailtyMark.htm" xr:uid="{6C73FD65-8AA5-49F8-8FF9-495383804C9E}"/>
-    <hyperlink ref="A176" r:id="rId283" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school101.htm" xr:uid="{9566DF94-7183-4E5B-9C1C-A769CF56B340}"/>
-    <hyperlink ref="B176" r:id="rId284" display="http://gkcx.eol.cn/schoolhtm/101/SchoolInfoAll1/SchoolInfoAll1101.htm" xr:uid="{27903983-B903-445C-BC2B-38F8EA8A4AD3}"/>
-    <hyperlink ref="C176" r:id="rId285" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/101/schoolSpecailtyMark.htm" xr:uid="{F2B1D31E-CBE7-45C5-9D4F-DD480D806837}"/>
-    <hyperlink ref="A178" r:id="rId286" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school51.htm" xr:uid="{444B6F39-C28A-4801-89D5-F222AEDE70E1}"/>
-    <hyperlink ref="B178" r:id="rId287" display="http://gkcx.eol.cn/schoolhtm/51/SchoolInfoAll1/SchoolInfoAll151.htm" xr:uid="{3C2AC4BE-006D-4ABF-8294-FB64AB182AE7}"/>
-    <hyperlink ref="C178" r:id="rId288" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/51/schoolSpecailtyMark.htm" xr:uid="{1BEA9B74-29DA-482C-B435-E4BB812847B3}"/>
-    <hyperlink ref="A179" r:id="rId289" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school100.htm" xr:uid="{DFA778DE-1CDE-4941-869E-0AAA5DE9C967}"/>
-    <hyperlink ref="B179" r:id="rId290" display="http://gkcx.eol.cn/schoolhtm/100/SchoolInfoAll1/SchoolInfoAll1100.htm" xr:uid="{BBD7B8E3-C414-4E12-B0C8-31D8B8E48B4C}"/>
-    <hyperlink ref="C179" r:id="rId291" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/100/schoolSpecailtyMark.htm" xr:uid="{7409E037-1AE6-4ECE-98B4-A067F7F66DA6}"/>
-    <hyperlink ref="A183" r:id="rId292" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school35.htm" xr:uid="{1A8FE506-5D22-429C-8CC5-05DB601883D5}"/>
-    <hyperlink ref="B183" r:id="rId293" display="http://gkcx.eol.cn/schoolhtm/35/SchoolInfoAll1/SchoolInfoAll135.htm" xr:uid="{B8833EBF-777F-4BA4-8374-F108938766F7}"/>
-    <hyperlink ref="C183" r:id="rId294" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/35/schoolSpecailtyMark.htm" xr:uid="{AEA5A10E-04D1-49A5-B475-C6DDDCFE3DBA}"/>
-    <hyperlink ref="A188" r:id="rId295" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school935.htm" xr:uid="{051DC76E-97E3-4C63-943C-06B9A201C46E}"/>
-    <hyperlink ref="B188" r:id="rId296" display="http://gkcx.eol.cn/schoolhtm/935/SchoolInfoAll1/SchoolInfoAll1935.htm" xr:uid="{B4DF5C08-6002-4B6C-A61C-C05726C0484F}"/>
-    <hyperlink ref="C188" r:id="rId297" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/935/schoolSpecailtyMark.htm" xr:uid="{0D8D5D31-8CBB-4A9D-B099-A4601A321558}"/>
-    <hyperlink ref="A193" r:id="rId298" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school37.htm" xr:uid="{900E075F-CDFE-4BF8-9EE2-2CD41EA58077}"/>
-    <hyperlink ref="B193" r:id="rId299" display="http://gkcx.eol.cn/schoolhtm/37/SchoolInfoAll1/SchoolInfoAll137.htm" xr:uid="{3D9BE441-F7BD-40B8-BD5D-381EB7AC1A79}"/>
-    <hyperlink ref="C193" r:id="rId300" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/37/schoolSpecailtyMark.htm" xr:uid="{2E979731-2C7A-40A6-8939-D918CE86E3F2}"/>
-    <hyperlink ref="A194" r:id="rId301" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school107.htm" xr:uid="{E770D027-73B4-4766-BA71-3081EF8AB5B1}"/>
-    <hyperlink ref="B194" r:id="rId302" display="http://gkcx.eol.cn/schoolhtm/107/SchoolInfoAll1/SchoolInfoAll1107.htm" xr:uid="{6D5C2D58-F0D8-47CA-ADEA-8623ACF5D4C7}"/>
-    <hyperlink ref="C194" r:id="rId303" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/107/schoolSpecailtyMark.htm" xr:uid="{5153E15E-59A9-4DAC-B71B-AC89F8EF11B6}"/>
-    <hyperlink ref="A195" r:id="rId304" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school332.htm" xr:uid="{C6451C5B-3802-469C-8FC6-C74FEA01057D}"/>
-    <hyperlink ref="B195" r:id="rId305" display="http://gkcx.eol.cn/schoolhtm/332/SchoolInfoAll1/SchoolInfoAll1332.htm" xr:uid="{66E0BC95-90DE-4A54-BD6A-857053E2BE1E}"/>
-    <hyperlink ref="C195" r:id="rId306" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/332/schoolSpecailtyMark.htm" xr:uid="{CFE58353-C67E-4186-9B3A-6D892FABB02F}"/>
-    <hyperlink ref="A196" r:id="rId307" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school57.htm" xr:uid="{3F91B70D-A7A3-4B1C-841F-1872797FB03A}"/>
-    <hyperlink ref="B196" r:id="rId308" display="http://gkcx.eol.cn/schoolhtm/57/SchoolInfoAll1/SchoolInfoAll157.htm" xr:uid="{D89313CF-1013-4D4D-9EFA-A5F32FBC8796}"/>
-    <hyperlink ref="C196" r:id="rId309" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/57/schoolSpecailtyMark.htm" xr:uid="{C1C91595-89BD-4380-B422-DF7C3F1D9D45}"/>
-    <hyperlink ref="A198" r:id="rId310" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school330.htm" xr:uid="{B714F041-E968-4AE9-9D6A-0F72F1AB77BB}"/>
-    <hyperlink ref="B198" r:id="rId311" display="http://gkcx.eol.cn/schoolhtm/330/SchoolInfoAll1/SchoolInfoAll1330.htm" xr:uid="{84663764-3615-47FB-B55A-9A2C95D31D9D}"/>
-    <hyperlink ref="C198" r:id="rId312" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/330/schoolSpecailtyMark.htm" xr:uid="{D69C5B96-43FC-4210-BD2C-4AA9A299A48B}"/>
-    <hyperlink ref="A199" r:id="rId313" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school36.htm" xr:uid="{F42602BD-D929-4451-A2EC-0609C395FCF8}"/>
-    <hyperlink ref="B199" r:id="rId314" display="http://gkcx.eol.cn/schoolhtm/36/SchoolInfoAll1/SchoolInfoAll136.htm" xr:uid="{109F6A0D-8FE0-47B5-9C51-7DBD551F7D08}"/>
-    <hyperlink ref="C199" r:id="rId315" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/36/schoolSpecailtyMark.htm" xr:uid="{6724EEA7-A49F-43BD-949C-5E575A099265}"/>
-    <hyperlink ref="A200" r:id="rId316" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school334.htm" xr:uid="{E27B1668-B6B2-42A4-B3ED-A9CD00C9714E}"/>
-    <hyperlink ref="B200" r:id="rId317" display="http://gkcx.eol.cn/schoolhtm/334/SchoolInfoAll1/SchoolInfoAll1334.htm" xr:uid="{19292FE7-B985-41E6-8B1C-A2CE774DE0A4}"/>
-    <hyperlink ref="C200" r:id="rId318" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/334/schoolSpecailtyMark.htm" xr:uid="{8618B18B-A4B0-44E1-BF09-DDDE5180E745}"/>
-    <hyperlink ref="A204" r:id="rId319" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school97.htm" xr:uid="{0FBEF990-913B-4CB3-BD51-45258F973953}"/>
-    <hyperlink ref="B204" r:id="rId320" display="http://gkcx.eol.cn/schoolhtm/97/SchoolInfoAll1/SchoolInfoAll197.htm" xr:uid="{DC884C87-8024-4B1D-9558-EC9466E24D4B}"/>
-    <hyperlink ref="C204" r:id="rId321" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/97/schoolSpecailtyMark.htm" xr:uid="{B91171A0-7814-4602-AFE1-A670D3EA09FA}"/>
-    <hyperlink ref="A209" r:id="rId322" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school504.htm" xr:uid="{689C6C97-CD3D-4CF9-91FC-3D5179729215}"/>
-    <hyperlink ref="B209" r:id="rId323" display="http://gkcx.eol.cn/schoolhtm/504/SchoolInfoAll1/SchoolInfoAll1504.htm" xr:uid="{E475DF4B-D543-4EA5-8905-D6E8A98E0F87}"/>
-    <hyperlink ref="C209" r:id="rId324" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/504/schoolSpecailtyMark.htm" xr:uid="{00AD65CD-29EA-46DE-8FE9-79429AB59F57}"/>
-    <hyperlink ref="A214" r:id="rId325" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school544.htm" xr:uid="{9227B9D3-EAFD-4653-9366-CE956FD1BED5}"/>
-    <hyperlink ref="B214" r:id="rId326" display="http://gkcx.eol.cn/schoolhtm/544/SchoolInfoAll1/SchoolInfoAll1544.htm" xr:uid="{CDF1A1E4-73CE-48FD-B5FB-5E77215B5EA4}"/>
-    <hyperlink ref="C214" r:id="rId327" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/544/schoolSpecailtyMark.htm" xr:uid="{EFC8D4BB-B237-494E-A17C-E6986035A97C}"/>
-    <hyperlink ref="A219" r:id="rId328" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school367.htm" xr:uid="{C18E167D-EFE3-4DFB-AA2E-8AE9EF484EE7}"/>
-    <hyperlink ref="B219" r:id="rId329" display="http://gkcx.eol.cn/schoolhtm/367/SchoolInfoAll1/SchoolInfoAll1367.htm" xr:uid="{72E62523-F2AE-4F32-833B-8FEABD7DED1C}"/>
-    <hyperlink ref="C219" r:id="rId330" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/367/schoolSpecailtyMark.htm" xr:uid="{DD8448E3-1754-4275-9A6F-14EB4BC79061}"/>
-    <hyperlink ref="A224" r:id="rId331" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school364.htm" xr:uid="{BA6A5F0E-A0D6-4F7D-A7BD-59F685775138}"/>
-    <hyperlink ref="B224" r:id="rId332" display="http://gkcx.eol.cn/schoolhtm/364/SchoolInfoAll1/SchoolInfoAll1364.htm" xr:uid="{E8ABCCD8-5BBB-470D-80F7-5E5EC7BDD7D3}"/>
-    <hyperlink ref="C224" r:id="rId333" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/364/schoolSpecailtyMark.htm" xr:uid="{65E9D319-784D-441E-B8EC-B6079521C8A6}"/>
-    <hyperlink ref="A229" r:id="rId334" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school74.htm" xr:uid="{607ADA93-8A53-42EF-8C04-0AEF2D8093E2}"/>
-    <hyperlink ref="B229" r:id="rId335" display="http://gkcx.eol.cn/schoolhtm/74/SchoolInfoAll1/SchoolInfoAll174.htm" xr:uid="{25D8241A-3463-4B1E-91E0-DBE6DC93F56A}"/>
-    <hyperlink ref="C229" r:id="rId336" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/74/schoolSpecailtyMark.htm" xr:uid="{49DB1984-9521-403C-8463-5046DCD187B5}"/>
-    <hyperlink ref="A231" r:id="rId337" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school199.htm" xr:uid="{AC942BED-1AAD-486A-850C-D6155F54D352}"/>
-    <hyperlink ref="B231" r:id="rId338" display="http://gkcx.eol.cn/schoolhtm/199/SchoolInfoAll1/SchoolInfoAll1199.htm" xr:uid="{D44C4D9F-3512-4831-A84D-1944426A9661}"/>
-    <hyperlink ref="C231" r:id="rId339" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/199/schoolSpecailtyMark.htm" xr:uid="{86CBF953-C298-4A7D-BE55-285E34214187}"/>
-    <hyperlink ref="A234" r:id="rId340" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school936.htm" xr:uid="{95676500-C832-4F70-8CAA-AB492E2E4D60}"/>
-    <hyperlink ref="B234" r:id="rId341" display="http://gkcx.eol.cn/schoolhtm/936/SchoolInfoAll1/SchoolInfoAll1936.htm" xr:uid="{ADB37659-FAA2-4A74-8E89-58F3D5B5E442}"/>
-    <hyperlink ref="C234" r:id="rId342" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/936/schoolSpecailtyMark.htm" xr:uid="{47ACF531-CDE2-456B-B34A-8ED203AC068F}"/>
-    <hyperlink ref="A235" r:id="rId343" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school939.htm" xr:uid="{39B23FC1-E37B-4451-B0E1-4C5BD02D54DC}"/>
-    <hyperlink ref="B235" r:id="rId344" display="http://gkcx.eol.cn/schoolhtm/939/SchoolPlan/SchoolPlan939.htm" xr:uid="{4D065D63-5C0A-488A-B1A3-80487F8F0034}"/>
-    <hyperlink ref="C235" r:id="rId345" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/939/schoolSpecailtyMark.htm" xr:uid="{7A6553C4-1C77-4EFE-AE0D-8954A5EA3498}"/>
-    <hyperlink ref="A237" r:id="rId346" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school937.htm" xr:uid="{6CE98793-F986-4F2D-93DD-CDD306F84201}"/>
-    <hyperlink ref="B237" r:id="rId347" display="http://gkcx.eol.cn/schoolhtm/937/SchoolPlan/SchoolPlan937.htm" xr:uid="{D0960547-92CA-4563-8E80-A554E67F7CDC}"/>
-    <hyperlink ref="C237" r:id="rId348" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/937/schoolSpecailtyMark.htm" xr:uid="{71FCD452-B380-438C-A237-50C235D71433}"/>
+    <hyperlink ref="A3" r:id="rId1" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school140.htm"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://gkcx.eol.cn/schoolhtm/140/SchoolJianZhang/SchoolJianZhang140.htm"/>
+    <hyperlink ref="C3" r:id="rId3" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/140/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A4" r:id="rId4" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school46.htm"/>
+    <hyperlink ref="B4" r:id="rId5" display="http://gkcx.eol.cn/schoolhtm/46/SchoolInfoAll1/SchoolInfoAll146.htm"/>
+    <hyperlink ref="C4" r:id="rId6" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/46/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A5" r:id="rId7" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school30.htm"/>
+    <hyperlink ref="B5" r:id="rId8" display="http://gkcx.eol.cn/schoolhtm/30/SchoolInfoAll1/SchoolInfoAll130.htm"/>
+    <hyperlink ref="C5" r:id="rId9" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/30/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A6" r:id="rId10" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school143.htm"/>
+    <hyperlink ref="B6" r:id="rId11" display="http://gkcx.eol.cn/schoolhtm/143/SchoolInfoAll1/SchoolInfoAll1143.htm"/>
+    <hyperlink ref="C6" r:id="rId12" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/143/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A7" r:id="rId13" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school556.htm"/>
+    <hyperlink ref="B7" r:id="rId14" display="http://gkcx.eol.cn/schoolhtm/556/SchoolInfoAll1/SchoolInfoAll1556.htm"/>
+    <hyperlink ref="C7" r:id="rId15" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/556/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A8" r:id="rId16" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school557.htm"/>
+    <hyperlink ref="B8" r:id="rId17" display="http://gkcx.eol.cn/schoolhtm/557/SchoolInfoAll1/SchoolInfoAll1557.htm"/>
+    <hyperlink ref="C8" r:id="rId18" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/557/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A9" r:id="rId19" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school558.htm"/>
+    <hyperlink ref="B9" r:id="rId20" display="http://gkcx.eol.cn/schoolhtm/558/SchoolInfoAll1/SchoolInfoAll1558.htm"/>
+    <hyperlink ref="C9" r:id="rId21" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/558/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A10" r:id="rId22" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school52.htm"/>
+    <hyperlink ref="B10" r:id="rId23" display="http://gkcx.eol.cn/schoolhtm/52/SchoolInfoAll1/SchoolInfoAll152.htm"/>
+    <hyperlink ref="C10" r:id="rId24" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/52/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A11" r:id="rId25" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school53.htm"/>
+    <hyperlink ref="B11" r:id="rId26" display="http://gkcx.eol.cn/schoolhtm/53/SchoolInfoAll1/SchoolInfoAll153.htm"/>
+    <hyperlink ref="C11" r:id="rId27" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/53/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A12" r:id="rId28" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school39.htm"/>
+    <hyperlink ref="B12" r:id="rId29" display="http://gkcx.eol.cn/schoolhtm/39/SchoolInfoAll1/SchoolInfoAll139.htm"/>
+    <hyperlink ref="C12" r:id="rId30" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/39/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A13" r:id="rId31" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school1006.htm"/>
+    <hyperlink ref="B13" r:id="rId32" display="http://gkcx.eol.cn/schoolhtm/1006/SchoolInfoAll1/SchoolInfoAll11006.htm"/>
+    <hyperlink ref="C13" r:id="rId33" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/1006/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A14" r:id="rId34" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school569.htm"/>
+    <hyperlink ref="B14" r:id="rId35" display="http://gkcx.eol.cn/schoolhtm/569/SchoolInfoAll1/SchoolInfoAll1569.htm"/>
+    <hyperlink ref="C14" r:id="rId36" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/569/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A15" r:id="rId37" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school831.htm"/>
+    <hyperlink ref="B15" r:id="rId38" display="http://gkcx.eol.cn/schoolhtm/831/SchoolInfoAll1/SchoolInfoAll1831.htm"/>
+    <hyperlink ref="C15" r:id="rId39" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/831/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A17" r:id="rId40" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school31.htm"/>
+    <hyperlink ref="B17" r:id="rId41" display="http://gkcx.eol.cn/schoolhtm/31/SchoolInfoAll1/SchoolInfoAll131.htm"/>
+    <hyperlink ref="C17" r:id="rId42" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/31/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A18" r:id="rId43" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school38.htm"/>
+    <hyperlink ref="B18" r:id="rId44" display="http://gkcx.eol.cn/schoolhtm/38/SchoolInfoAll1/SchoolInfoAll138.htm"/>
+    <hyperlink ref="C18" r:id="rId45" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/38/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A19" r:id="rId46" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school47.htm"/>
+    <hyperlink ref="B19" r:id="rId47" display="http://gkcx.eol.cn/schoolhtm/47/SchoolInfoAll1/SchoolInfoAll147.htm"/>
+    <hyperlink ref="C19" r:id="rId48" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/47/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A20" r:id="rId49" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school144.htm"/>
+    <hyperlink ref="B20" r:id="rId50" display="http://gkcx.eol.cn/schoolhtm/144/SchoolInfoAll1/SchoolInfoAll1144.htm"/>
+    <hyperlink ref="C20" r:id="rId51" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/144/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A21" r:id="rId52" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school48.htm"/>
+    <hyperlink ref="B21" r:id="rId53" display="http://gkcx.eol.cn/schoolhtm/48/SchoolInfoAll1/SchoolInfoAll148.htm"/>
+    <hyperlink ref="C21" r:id="rId54" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/48/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A22" r:id="rId55" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school43.htm"/>
+    <hyperlink ref="B22" r:id="rId56" display="http://gkcx.eol.cn/schoolhtm/43/SchoolInfoAll1/SchoolInfoAll143.htm"/>
+    <hyperlink ref="C22" r:id="rId57" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/43/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A23" r:id="rId58" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school45.htm"/>
+    <hyperlink ref="B23" r:id="rId59" display="http://gkcx.eol.cn/schoolhtm/45/SchoolInfoAll1/SchoolInfoAll145.htm"/>
+    <hyperlink ref="C23" r:id="rId60" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/45/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A24" r:id="rId61" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school40.htm"/>
+    <hyperlink ref="B24" r:id="rId62" display="http://gkcx.eol.cn/schoolhtm/40/SchoolJianZhang/SchoolJianZhang40.htm"/>
+    <hyperlink ref="C24" r:id="rId63" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/40/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A25" r:id="rId64" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school49.htm"/>
+    <hyperlink ref="B25" r:id="rId65" display="http://gkcx.eol.cn/schoolhtm/49/SchoolInfoAll1/SchoolInfoAll149.htm"/>
+    <hyperlink ref="C25" r:id="rId66" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/49/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A26" r:id="rId67" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school830.htm"/>
+    <hyperlink ref="B26" r:id="rId68" display="http://gkcx.eol.cn/schoolhtm/830/SchoolInfoAll1/SchoolInfoAll1830.htm"/>
+    <hyperlink ref="C26" r:id="rId69" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/830/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A27" r:id="rId70" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school832.htm"/>
+    <hyperlink ref="B27" r:id="rId71" display="http://gkcx.eol.cn/schoolhtm/832/SchoolInfoAll1/SchoolInfoAll1832.htm"/>
+    <hyperlink ref="C27" r:id="rId72" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/832/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A28" r:id="rId73" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school566.htm"/>
+    <hyperlink ref="B28" r:id="rId74" display="http://gkcx.eol.cn/schoolhtm/566/SchoolInfoAll1/SchoolInfoAll1566.htm"/>
+    <hyperlink ref="C28" r:id="rId75" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/566/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A29" r:id="rId76" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school866.htm"/>
+    <hyperlink ref="B29" r:id="rId77" display="http://gkcx.eol.cn/schoolhtm/866/SchoolInfoAll1/SchoolInfoAll1866.htm"/>
+    <hyperlink ref="C29" r:id="rId78" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/866/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A32" r:id="rId79" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school136.htm"/>
+    <hyperlink ref="B32" r:id="rId80" display="http://gkcx.eol.cn/schoolhtm/136/SchoolInfoAll1/SchoolInfoAll1136.htm"/>
+    <hyperlink ref="C32" r:id="rId81" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/136/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A33" r:id="rId82" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school131.htm"/>
+    <hyperlink ref="B33" r:id="rId83" display="http://gkcx.eol.cn/schoolhtm/131/SchoolInfoAll1/SchoolInfoAll1131.htm"/>
+    <hyperlink ref="C33" r:id="rId84" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/131/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A34" r:id="rId85" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school135.htm"/>
+    <hyperlink ref="B34" r:id="rId86" display="http://gkcx.eol.cn/schoolhtm/135/SchoolInfoAll1/SchoolInfoAll1135.htm"/>
+    <hyperlink ref="C34" r:id="rId87" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/135/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A35" r:id="rId88" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school133.htm"/>
+    <hyperlink ref="B35" r:id="rId89" display="http://gkcx.eol.cn/schoolhtm/133/SchoolInfoAll1/SchoolInfoAll1133.htm"/>
+    <hyperlink ref="C35" r:id="rId90" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/133/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A36" r:id="rId91" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school125.htm"/>
+    <hyperlink ref="B36" r:id="rId92" display="http://gkcx.eol.cn/schoolhtm/125/SchoolInfoAll1/SchoolInfoAll1125.htm"/>
+    <hyperlink ref="C36" r:id="rId93" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/125/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A38" r:id="rId94" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school132.htm"/>
+    <hyperlink ref="B38" r:id="rId95" display="http://gkcx.eol.cn/schoolhtm/132/SchoolInfoAll1/SchoolInfoAll1132.htm"/>
+    <hyperlink ref="C38" r:id="rId96" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/132/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A39" r:id="rId97" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school76.htm"/>
+    <hyperlink ref="B39" r:id="rId98" display="http://gkcx.eol.cn/schoolhtm/76/SchoolInfoAll1/SchoolInfoAll176.htm"/>
+    <hyperlink ref="C39" r:id="rId99" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/76/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A40" r:id="rId100" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school130.htm"/>
+    <hyperlink ref="B40" r:id="rId101" display="http://gkcx.eol.cn/schoolhtm/130/SchoolInfoAll1/SchoolInfoAll1130.htm"/>
+    <hyperlink ref="C40" r:id="rId102" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/130/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A41" r:id="rId103" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school73.htm"/>
+    <hyperlink ref="B41" r:id="rId104" display="http://gkcx.eol.cn/schoolhtm/73/SchoolInfoAll1/SchoolInfoAll173.htm"/>
+    <hyperlink ref="C41" r:id="rId105" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/73/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A45" r:id="rId106" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school59.htm"/>
+    <hyperlink ref="B45" r:id="rId107" display="http://gkcx.eol.cn/schoolhtm/59/SchoolInfoAll1/SchoolInfoAll159.htm"/>
+    <hyperlink ref="C45" r:id="rId108" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/59/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A46" r:id="rId109" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school78.htm"/>
+    <hyperlink ref="B46" r:id="rId110" display="http://gkcx.eol.cn/schoolhtm/78/SchoolInfoAll1/SchoolInfoAll178.htm"/>
+    <hyperlink ref="C46" r:id="rId111" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/78/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A48" r:id="rId112" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school60.htm"/>
+    <hyperlink ref="B48" r:id="rId113" display="http://gkcx.eol.cn/schoolhtm/60/SchoolInfoAll1/SchoolInfoAll160.htm"/>
+    <hyperlink ref="C48" r:id="rId114" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/60/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A49" r:id="rId115" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school41.htm"/>
+    <hyperlink ref="B49" r:id="rId116" display="http://gkcx.eol.cn/schoolhtm/41/SchoolInfoAll1/SchoolInfoAll141.htm"/>
+    <hyperlink ref="C49" r:id="rId117" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/41/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A52" r:id="rId118" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school119.htm"/>
+    <hyperlink ref="B52" r:id="rId119" display="http://gkcx.eol.cn/schoolhtm/119/SchoolInfoAll1/SchoolInfoAll1119.htm"/>
+    <hyperlink ref="C52" r:id="rId120" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/119/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A54" r:id="rId121" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school934.htm"/>
+    <hyperlink ref="B54" r:id="rId122" display="http://gkcx.eol.cn/schoolhtm/934/SchoolInfoAll1/SchoolInfoAll1934.htm"/>
+    <hyperlink ref="C54" r:id="rId123" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/934/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A57" r:id="rId124" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school591.htm"/>
+    <hyperlink ref="B57" r:id="rId125" display="http://gkcx.eol.cn/schoolhtm/591/SchoolInfoAll1/SchoolInfoAll1591.htm"/>
+    <hyperlink ref="C57" r:id="rId126" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/591/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A64" r:id="rId127" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school139.htm"/>
+    <hyperlink ref="B64" r:id="rId128" display="http://gkcx.eol.cn/schoolhtm/139/SchoolInfoAll1/SchoolInfoAll1139.htm"/>
+    <hyperlink ref="C64" r:id="rId129" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/139/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A69" r:id="rId130" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school32.htm"/>
+    <hyperlink ref="B69" r:id="rId131" display="http://gkcx.eol.cn/schoolhtm/32/SchoolInfoAll1/SchoolInfoAll132.htm"/>
+    <hyperlink ref="C69" r:id="rId132" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/32/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A74" r:id="rId133" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school138.htm"/>
+    <hyperlink ref="B74" r:id="rId134" display="http://gkcx.eol.cn/schoolhtm/138/SchoolInfoAll1/SchoolInfoAll1138.htm"/>
+    <hyperlink ref="C74" r:id="rId135" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/138/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A75" r:id="rId136" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school50.htm"/>
+    <hyperlink ref="B75" r:id="rId137" display="http://gkcx.eol.cn/schoolhtm/50/SchoolInfoAll1/SchoolInfoAll150.htm"/>
+    <hyperlink ref="C75" r:id="rId138" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/50/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A77" r:id="rId139" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school134.htm"/>
+    <hyperlink ref="B77" r:id="rId140" display="http://gkcx.eol.cn/schoolhtm/134/SchoolInfoAll1/SchoolInfoAll1134.htm"/>
+    <hyperlink ref="C77" r:id="rId141" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/134/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A78" r:id="rId142" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school33.htm"/>
+    <hyperlink ref="B78" r:id="rId143" display="http://gkcx.eol.cn/schoolhtm/33/SchoolInfoAll1/SchoolInfoAll133.htm"/>
+    <hyperlink ref="C78" r:id="rId144" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/33/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A81" r:id="rId145" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school122.htm"/>
+    <hyperlink ref="B81" r:id="rId146" display="http://gkcx.eol.cn/schoolhtm/122/SchoolPlan/SchoolPlan122.htm"/>
+    <hyperlink ref="C81" r:id="rId147" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/122/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A82" r:id="rId148" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school129.htm"/>
+    <hyperlink ref="B82" r:id="rId149" display="http://gkcx.eol.cn/schoolhtm/129/SchoolPlan/SchoolPlan129.htm"/>
+    <hyperlink ref="C82" r:id="rId150" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/129/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A84" r:id="rId151" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school142.htm"/>
+    <hyperlink ref="B84" r:id="rId152" display="http://gkcx.eol.cn/schoolhtm/142/SchoolInfoAll1/SchoolInfoAll1142.htm"/>
+    <hyperlink ref="C84" r:id="rId153" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/142/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A88" r:id="rId154" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school34.htm"/>
+    <hyperlink ref="B88" r:id="rId155" display="http://gkcx.eol.cn/schoolhtm/34/SchoolInfoAll1/SchoolInfoAll134.htm"/>
+    <hyperlink ref="C88" r:id="rId156" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/34/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A89" r:id="rId157" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school137.htm"/>
+    <hyperlink ref="B89" r:id="rId158" display="http://gkcx.eol.cn/schoolhtm/137/SchoolInfoAll1/SchoolInfoAll1137.htm"/>
+    <hyperlink ref="C89" r:id="rId159" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/137/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A91" r:id="rId160" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school124.htm"/>
+    <hyperlink ref="B91" r:id="rId161" display="http://gkcx.eol.cn/schoolhtm/124/SchoolInfoAll1/SchoolInfoAll1124.htm"/>
+    <hyperlink ref="C91" r:id="rId162" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/124/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A92" r:id="rId163" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school419.htm"/>
+    <hyperlink ref="B92" r:id="rId164" display="http://gkcx.eol.cn/schoolhtm/419/SchoolInfoAll1/SchoolInfoAll1419.htm"/>
+    <hyperlink ref="C92" r:id="rId165" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/419/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A95" r:id="rId166" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school111.htm"/>
+    <hyperlink ref="B95" r:id="rId167" display="http://gkcx.eol.cn/schoolhtm/111/SchoolInfoAll1/SchoolInfoAll1111.htm"/>
+    <hyperlink ref="C95" r:id="rId168" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/111/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A96" r:id="rId169" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school118.htm"/>
+    <hyperlink ref="B96" r:id="rId170" display="http://gkcx.eol.cn/schoolhtm/118/SchoolInfoAll1/SchoolInfoAll1118.htm"/>
+    <hyperlink ref="C96" r:id="rId171" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/118/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A97" r:id="rId172" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school110.htm"/>
+    <hyperlink ref="B97" r:id="rId173" display="http://gkcx.eol.cn/schoolhtm/110/SchoolInfoAll1/SchoolInfoAll1110.htm"/>
+    <hyperlink ref="C97" r:id="rId174" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/110/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A98" r:id="rId175" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school116.htm"/>
+    <hyperlink ref="B98" r:id="rId176" display="http://gkcx.eol.cn/schoolhtm/116/SchoolInfoAll1/SchoolInfoAll1116.htm"/>
+    <hyperlink ref="C98" r:id="rId177" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/116/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A99" r:id="rId178" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school86.htm"/>
+    <hyperlink ref="B99" r:id="rId179" display="http://gkcx.eol.cn/schoolhtm/86/SchoolInfoAll1/SchoolInfoAll186.htm"/>
+    <hyperlink ref="C99" r:id="rId180" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/86/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A100" r:id="rId181" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school77.htm"/>
+    <hyperlink ref="B100" r:id="rId182" display="http://gkcx.eol.cn/schoolhtm/77/SchoolInfoAll1/SchoolInfoAll177.htm"/>
+    <hyperlink ref="C100" r:id="rId183" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/77/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A102" r:id="rId184" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school109.htm"/>
+    <hyperlink ref="B102" r:id="rId185" display="http://gkcx.eol.cn/schoolhtm/109/SchoolInfoAll1/SchoolInfoAll1109.htm"/>
+    <hyperlink ref="C102" r:id="rId186" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/109/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A103" r:id="rId187" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school115.htm"/>
+    <hyperlink ref="B103" r:id="rId188" display="http://gkcx.eol.cn/schoolhtm/115/SchoolInfoAll1/SchoolInfoAll1115.htm"/>
+    <hyperlink ref="C103" r:id="rId189" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/115/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A104" r:id="rId190" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school117.htm"/>
+    <hyperlink ref="B104" r:id="rId191" display="http://gkcx.eol.cn/schoolhtm/117/SchoolInfoAll1/SchoolInfoAll1117.htm"/>
+    <hyperlink ref="C104" r:id="rId192" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/117/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A105" r:id="rId193" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school112.htm"/>
+    <hyperlink ref="B105" r:id="rId194" display="http://gkcx.eol.cn/schoolhtm/112/SchoolPlan/SchoolPlan112.htm"/>
+    <hyperlink ref="C105" r:id="rId195" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/112/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A106" r:id="rId196" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school113.htm"/>
+    <hyperlink ref="B106" r:id="rId197" display="http://gkcx.eol.cn/schoolhtm/113/SchoolInfoAll1/SchoolInfoAll1113.htm"/>
+    <hyperlink ref="C106" r:id="rId198" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/113/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A110" r:id="rId199" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school114.htm"/>
+    <hyperlink ref="B110" r:id="rId200" display="http://gkcx.eol.cn/schoolhtm/114/SchoolInfoAll1/SchoolInfoAll1114.htm"/>
+    <hyperlink ref="C110" r:id="rId201" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/114/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A115" r:id="rId202" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school66.htm"/>
+    <hyperlink ref="B115" r:id="rId203" display="http://gkcx.eol.cn/schoolhtm/66/SchoolInfoAll1/SchoolInfoAll166.htm"/>
+    <hyperlink ref="C115" r:id="rId204" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/66/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A116" r:id="rId205" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school63.htm"/>
+    <hyperlink ref="B116" r:id="rId206" display="http://gkcx.eol.cn/schoolhtm/63/SchoolInfoAll1/SchoolInfoAll163.htm"/>
+    <hyperlink ref="C116" r:id="rId207" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/63/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A118" r:id="rId208" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school67.htm"/>
+    <hyperlink ref="B118" r:id="rId209" display="http://gkcx.eol.cn/schoolhtm/67/SchoolInfoAll1/SchoolInfoAll167.htm"/>
+    <hyperlink ref="C118" r:id="rId210" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/67/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A122" r:id="rId211" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school102.htm"/>
+    <hyperlink ref="B122" r:id="rId212" display="http://gkcx.eol.cn/schoolhtm/102/SchoolInfoAll1/SchoolInfoAll1102.htm"/>
+    <hyperlink ref="C122" r:id="rId213" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/102/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A124" r:id="rId214" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school103.htm"/>
+    <hyperlink ref="B124" r:id="rId215" display="http://gkcx.eol.cn/schoolhtm/103/SchoolInfoAll1/SchoolInfoAll1103.htm"/>
+    <hyperlink ref="C124" r:id="rId216" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/103/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A127" r:id="rId217" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school108.htm"/>
+    <hyperlink ref="B127" r:id="rId218" display="http://gkcx.eol.cn/schoolhtm/108/SchoolInfoAll1/SchoolInfoAll1108.htm"/>
+    <hyperlink ref="C127" r:id="rId219" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/108/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A132" r:id="rId220" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school126.htm"/>
+    <hyperlink ref="B132" r:id="rId221" display="http://gkcx.eol.cn/schoolhtm/126/SchoolInfoAll1/SchoolInfoAll1126.htm"/>
+    <hyperlink ref="C132" r:id="rId222" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/126/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A133" r:id="rId223" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school120.htm"/>
+    <hyperlink ref="B133" r:id="rId224" display="http://gkcx.eol.cn/schoolhtm/120/SchoolInfoAll1/SchoolInfoAll1120.htm"/>
+    <hyperlink ref="C133" r:id="rId225" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/120/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A135" r:id="rId226" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school61.htm"/>
+    <hyperlink ref="B135" r:id="rId227" display="http://gkcx.eol.cn/schoolhtm/61/SchoolInfoAll1/SchoolInfoAll161.htm"/>
+    <hyperlink ref="C135" r:id="rId228" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/61/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A139" r:id="rId229" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school62.htm"/>
+    <hyperlink ref="B139" r:id="rId230" display="http://gkcx.eol.cn/schoolhtm/62/SchoolInfoAll1/SchoolInfoAll162.htm"/>
+    <hyperlink ref="C139" r:id="rId231" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/62/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A144" r:id="rId232" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school42.htm"/>
+    <hyperlink ref="B144" r:id="rId233" display="http://gkcx.eol.cn/schoolhtm/42/SchoolInfoAll1/SchoolInfoAll142.htm"/>
+    <hyperlink ref="C144" r:id="rId234" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/42/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A145" r:id="rId235" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school128.htm"/>
+    <hyperlink ref="B145" r:id="rId236" display="http://gkcx.eol.cn/schoolhtm/128/SchoolInfoAll1/SchoolInfoAll1128.htm"/>
+    <hyperlink ref="C145" r:id="rId237" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/128/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A146" r:id="rId238" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school420.htm"/>
+    <hyperlink ref="B146" r:id="rId239" display="http://gkcx.eol.cn/schoolhtm/420/SchoolPlan/SchoolPlan420.htm"/>
+    <hyperlink ref="C146" r:id="rId240" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/420/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A147" r:id="rId241" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school121.htm"/>
+    <hyperlink ref="B147" r:id="rId242" display="http://gkcx.eol.cn/schoolhtm/121/SchoolInfoAll1/SchoolInfoAll1121.htm"/>
+    <hyperlink ref="C147" r:id="rId243" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/121/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A149" r:id="rId244" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school127.htm"/>
+    <hyperlink ref="B149" r:id="rId245" display="http://gkcx.eol.cn/schoolhtm/127/SchoolInfoAll1/SchoolInfoAll1127.htm"/>
+    <hyperlink ref="C149" r:id="rId246" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/127/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A150" r:id="rId247" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school414.htm"/>
+    <hyperlink ref="B150" r:id="rId248" display="http://gkcx.eol.cn/schoolhtm/414/SchoolInfoAll1/SchoolInfoAll1414.htm"/>
+    <hyperlink ref="C150" r:id="rId249" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/414/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A151" r:id="rId250" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school417.htm"/>
+    <hyperlink ref="B151" r:id="rId251" display="http://gkcx.eol.cn/schoolhtm/417/SchoolInfoAll1/SchoolInfoAll1417.htm"/>
+    <hyperlink ref="C151" r:id="rId252" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/417/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A155" r:id="rId253" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school44.htm"/>
+    <hyperlink ref="B155" r:id="rId254" display="http://gkcx.eol.cn/schoolhtm/44/SchoolInfoAll1/SchoolInfoAll144.htm"/>
+    <hyperlink ref="C155" r:id="rId255" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/44/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A156" r:id="rId256" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school58.htm"/>
+    <hyperlink ref="B156" r:id="rId257" display="http://gkcx.eol.cn/schoolhtm/58/SchoolInfoAll1/SchoolInfoAll158.htm"/>
+    <hyperlink ref="C156" r:id="rId258" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/58/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A158" r:id="rId259" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school123.htm"/>
+    <hyperlink ref="B158" r:id="rId260" display="http://gkcx.eol.cn/schoolhtm/123/SchoolInfoAll1/SchoolInfoAll1123.htm"/>
+    <hyperlink ref="C158" r:id="rId261" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/123/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A162" r:id="rId262" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school104.htm"/>
+    <hyperlink ref="B162" r:id="rId263" display="http://gkcx.eol.cn/schoolhtm/104/SchoolInfoAll1/SchoolInfoAll1104.htm"/>
+    <hyperlink ref="C162" r:id="rId264" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/104/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A163" r:id="rId265" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school105.htm"/>
+    <hyperlink ref="B163" r:id="rId266" display="http://gkcx.eol.cn/schoolhtm/105/SchoolInfoAll1/SchoolInfoAll1105.htm"/>
+    <hyperlink ref="C163" r:id="rId267" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/105/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A165" r:id="rId268" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school106.htm"/>
+    <hyperlink ref="B165" r:id="rId269" display="http://gkcx.eol.cn/schoolhtm/106/SchoolInfoAll1/SchoolInfoAll1106.htm"/>
+    <hyperlink ref="C165" r:id="rId270" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/106/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A166" r:id="rId271" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school98.htm"/>
+    <hyperlink ref="B166" r:id="rId272" display="http://gkcx.eol.cn/schoolhtm/98/SchoolInfoAll1/SchoolInfoAll198.htm"/>
+    <hyperlink ref="C166" r:id="rId273" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/98/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A169" r:id="rId274" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school96.htm"/>
+    <hyperlink ref="B169" r:id="rId275" display="http://gkcx.eol.cn/schoolhtm/96/SchoolInfoAll1/SchoolInfoAll196.htm"/>
+    <hyperlink ref="C169" r:id="rId276" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/96/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A174" r:id="rId277" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school99.htm"/>
+    <hyperlink ref="B174" r:id="rId278" display="http://gkcx.eol.cn/schoolhtm/99/SchoolInfoAll1/SchoolInfoAll199.htm"/>
+    <hyperlink ref="C174" r:id="rId279" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/99/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A175" r:id="rId280" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school661.htm"/>
+    <hyperlink ref="B175" r:id="rId281" display="http://gkcx.eol.cn/schoolhtm/661/SchoolInfoAll1/SchoolInfoAll1661.htm"/>
+    <hyperlink ref="C175" r:id="rId282" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/661/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A176" r:id="rId283" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school101.htm"/>
+    <hyperlink ref="B176" r:id="rId284" display="http://gkcx.eol.cn/schoolhtm/101/SchoolInfoAll1/SchoolInfoAll1101.htm"/>
+    <hyperlink ref="C176" r:id="rId285" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/101/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A178" r:id="rId286" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school51.htm"/>
+    <hyperlink ref="B178" r:id="rId287" display="http://gkcx.eol.cn/schoolhtm/51/SchoolInfoAll1/SchoolInfoAll151.htm"/>
+    <hyperlink ref="C178" r:id="rId288" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/51/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A179" r:id="rId289" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school100.htm"/>
+    <hyperlink ref="B179" r:id="rId290" display="http://gkcx.eol.cn/schoolhtm/100/SchoolInfoAll1/SchoolInfoAll1100.htm"/>
+    <hyperlink ref="C179" r:id="rId291" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/100/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A183" r:id="rId292" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school35.htm"/>
+    <hyperlink ref="B183" r:id="rId293" display="http://gkcx.eol.cn/schoolhtm/35/SchoolInfoAll1/SchoolInfoAll135.htm"/>
+    <hyperlink ref="C183" r:id="rId294" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/35/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A188" r:id="rId295" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school935.htm"/>
+    <hyperlink ref="B188" r:id="rId296" display="http://gkcx.eol.cn/schoolhtm/935/SchoolInfoAll1/SchoolInfoAll1935.htm"/>
+    <hyperlink ref="C188" r:id="rId297" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/935/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A193" r:id="rId298" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school37.htm"/>
+    <hyperlink ref="B193" r:id="rId299" display="http://gkcx.eol.cn/schoolhtm/37/SchoolInfoAll1/SchoolInfoAll137.htm"/>
+    <hyperlink ref="C193" r:id="rId300" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/37/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A194" r:id="rId301" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school107.htm"/>
+    <hyperlink ref="B194" r:id="rId302" display="http://gkcx.eol.cn/schoolhtm/107/SchoolInfoAll1/SchoolInfoAll1107.htm"/>
+    <hyperlink ref="C194" r:id="rId303" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/107/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A195" r:id="rId304" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school332.htm"/>
+    <hyperlink ref="B195" r:id="rId305" display="http://gkcx.eol.cn/schoolhtm/332/SchoolInfoAll1/SchoolInfoAll1332.htm"/>
+    <hyperlink ref="C195" r:id="rId306" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/332/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A196" r:id="rId307" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school57.htm"/>
+    <hyperlink ref="B196" r:id="rId308" display="http://gkcx.eol.cn/schoolhtm/57/SchoolInfoAll1/SchoolInfoAll157.htm"/>
+    <hyperlink ref="C196" r:id="rId309" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/57/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A198" r:id="rId310" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school330.htm"/>
+    <hyperlink ref="B198" r:id="rId311" display="http://gkcx.eol.cn/schoolhtm/330/SchoolInfoAll1/SchoolInfoAll1330.htm"/>
+    <hyperlink ref="C198" r:id="rId312" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/330/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A199" r:id="rId313" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school36.htm"/>
+    <hyperlink ref="B199" r:id="rId314" display="http://gkcx.eol.cn/schoolhtm/36/SchoolInfoAll1/SchoolInfoAll136.htm"/>
+    <hyperlink ref="C199" r:id="rId315" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/36/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A200" r:id="rId316" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school334.htm"/>
+    <hyperlink ref="B200" r:id="rId317" display="http://gkcx.eol.cn/schoolhtm/334/SchoolInfoAll1/SchoolInfoAll1334.htm"/>
+    <hyperlink ref="C200" r:id="rId318" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/334/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A204" r:id="rId319" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school97.htm"/>
+    <hyperlink ref="B204" r:id="rId320" display="http://gkcx.eol.cn/schoolhtm/97/SchoolInfoAll1/SchoolInfoAll197.htm"/>
+    <hyperlink ref="C204" r:id="rId321" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/97/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A209" r:id="rId322" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school504.htm"/>
+    <hyperlink ref="B209" r:id="rId323" display="http://gkcx.eol.cn/schoolhtm/504/SchoolInfoAll1/SchoolInfoAll1504.htm"/>
+    <hyperlink ref="C209" r:id="rId324" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/504/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A214" r:id="rId325" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school544.htm"/>
+    <hyperlink ref="B214" r:id="rId326" display="http://gkcx.eol.cn/schoolhtm/544/SchoolInfoAll1/SchoolInfoAll1544.htm"/>
+    <hyperlink ref="C214" r:id="rId327" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/544/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A219" r:id="rId328" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school367.htm"/>
+    <hyperlink ref="B219" r:id="rId329" display="http://gkcx.eol.cn/schoolhtm/367/SchoolInfoAll1/SchoolInfoAll1367.htm"/>
+    <hyperlink ref="C219" r:id="rId330" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/367/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A224" r:id="rId331" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school364.htm"/>
+    <hyperlink ref="B224" r:id="rId332" display="http://gkcx.eol.cn/schoolhtm/364/SchoolInfoAll1/SchoolInfoAll1364.htm"/>
+    <hyperlink ref="C224" r:id="rId333" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/364/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A229" r:id="rId334" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school74.htm"/>
+    <hyperlink ref="B229" r:id="rId335" display="http://gkcx.eol.cn/schoolhtm/74/SchoolInfoAll1/SchoolInfoAll174.htm"/>
+    <hyperlink ref="C229" r:id="rId336" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/74/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A231" r:id="rId337" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school199.htm"/>
+    <hyperlink ref="B231" r:id="rId338" display="http://gkcx.eol.cn/schoolhtm/199/SchoolInfoAll1/SchoolInfoAll1199.htm"/>
+    <hyperlink ref="C231" r:id="rId339" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/199/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A234" r:id="rId340" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school936.htm"/>
+    <hyperlink ref="B234" r:id="rId341" display="http://gkcx.eol.cn/schoolhtm/936/SchoolInfoAll1/SchoolInfoAll1936.htm"/>
+    <hyperlink ref="C234" r:id="rId342" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/936/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A235" r:id="rId343" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school939.htm"/>
+    <hyperlink ref="B235" r:id="rId344" display="http://gkcx.eol.cn/schoolhtm/939/SchoolPlan/SchoolPlan939.htm"/>
+    <hyperlink ref="C235" r:id="rId345" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/939/schoolSpecailtyMark.htm"/>
+    <hyperlink ref="A237" r:id="rId346" display="http://gkcx.eol.cn/schoolhtm/schoolTemple/school937.htm"/>
+    <hyperlink ref="B237" r:id="rId347" display="http://gkcx.eol.cn/schoolhtm/937/SchoolPlan/SchoolPlan937.htm"/>
+    <hyperlink ref="C237" r:id="rId348" display="http://gkcx.eol.cn/schoolhtm/schoolSpecailtyMark/937/schoolSpecailtyMark.htm"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
